--- a/System design/Group2_Report_HMS_Project_Tracking.xlsx
+++ b/System design/Group2_Report_HMS_Project_Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CaoVanLam\CHUYEN NGANH\CN7\SDN\Project\sdn302-02\System design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102C293B-6155-4203-8549-F4D52D83992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94ADE28-0D54-442A-9B3A-F317C634E61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project General Info" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="99">
   <si>
     <t>Team</t>
   </si>
@@ -305,6 +305,24 @@
   <si>
     <t>Removes a room category from the system.</t>
   </si>
+  <si>
+    <t>Add service item to service</t>
+  </si>
+  <si>
+    <t>Add new service item to service</t>
+  </si>
+  <si>
+    <t>Delete service item</t>
+  </si>
+  <si>
+    <t>Delete service item from service list</t>
+  </si>
+  <si>
+    <t>Delete service</t>
+  </si>
+  <si>
+    <t>Remove service from service list</t>
+  </si>
 </sst>
 </file>
 
@@ -322,21 +340,25 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -567,8 +589,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,51 +606,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,9 +633,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -857,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ996"/>
+  <dimension ref="A1:AQ1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49:J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -879,21 +934,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23">
         <v>1</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="21"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="22"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="2" t="s">
@@ -938,21 +993,21 @@
       <c r="AQ1" s="1"/>
     </row>
     <row r="2" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="21"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="2" t="s">
@@ -1087,178 +1142,178 @@
       <c r="AQ4" s="1"/>
     </row>
     <row r="5" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="9"/>
+      <c r="O5" s="8"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="26" t="s">
         <v>16</v>
       </c>
       <c r="R5" s="5"/>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="18" t="s">
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="26" t="s">
         <v>18</v>
       </c>
       <c r="AD5" s="5"/>
-      <c r="AE5" s="18" t="s">
+      <c r="AE5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
       <c r="AI5" s="5"/>
     </row>
     <row r="6" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="7"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="10"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="7"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="10"/>
+      <c r="O6" s="9"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="15" t="s">
+      <c r="T6" s="29"/>
+      <c r="U6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="17"/>
-      <c r="W6" s="15" t="s">
+      <c r="V6" s="29"/>
+      <c r="W6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="15" t="s">
+      <c r="X6" s="29"/>
+      <c r="Y6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="19" t="s">
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AB6" s="17"/>
+      <c r="AB6" s="29"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="6"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
       <c r="AI6" s="7"/>
     </row>
     <row r="7" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="9"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="5"/>
       <c r="N7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="9"/>
+      <c r="O7" s="8"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R7" s="5"/>
-      <c r="S7" s="14"/>
+      <c r="S7" s="13"/>
       <c r="T7" s="5"/>
-      <c r="U7" s="14"/>
+      <c r="U7" s="13"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="14"/>
+      <c r="W7" s="13"/>
       <c r="X7" s="5"/>
-      <c r="Y7" s="14"/>
+      <c r="Y7" s="13"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AB7" s="5"/>
-      <c r="AC7" s="14"/>
+      <c r="AC7" s="13"/>
       <c r="AD7" s="5"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
       <c r="AI7" s="5"/>
     </row>
     <row r="8" spans="1:43" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="31"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="7"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="10"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="7"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="10"/>
+      <c r="O8" s="9"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="7"/>
@@ -1275,80 +1330,80 @@
       <c r="AC8" s="6"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="6"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
       <c r="AI8" s="7"/>
     </row>
     <row r="9" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="5"/>
       <c r="N9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="9"/>
+      <c r="O9" s="8"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R9" s="5"/>
-      <c r="S9" s="14"/>
+      <c r="S9" s="13"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="14"/>
+      <c r="U9" s="13"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="14"/>
+      <c r="W9" s="13"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="14"/>
+      <c r="Y9" s="13"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="14"/>
+      <c r="AC9" s="13"/>
       <c r="AD9" s="5"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
       <c r="AI9" s="5"/>
     </row>
     <row r="10" spans="1:43" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="31"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="7"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="10"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="7"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="10"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="7"/>
@@ -1365,80 +1420,80 @@
       <c r="AC10" s="6"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="6"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
       <c r="AI10" s="7"/>
     </row>
     <row r="11" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="9"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="5"/>
       <c r="N11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="9"/>
+      <c r="O11" s="8"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R11" s="5"/>
-      <c r="S11" s="14"/>
+      <c r="S11" s="13"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="14"/>
+      <c r="U11" s="13"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="14"/>
+      <c r="W11" s="13"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="14"/>
+      <c r="Y11" s="13"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AB11" s="5"/>
-      <c r="AC11" s="14"/>
+      <c r="AC11" s="13"/>
       <c r="AD11" s="5"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
       <c r="AI11" s="5"/>
     </row>
     <row r="12" spans="1:43" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="7"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="10"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="7"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="10"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="7"/>
@@ -1455,80 +1510,80 @@
       <c r="AC12" s="6"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="6"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
       <c r="AI12" s="7"/>
     </row>
     <row r="13" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="5"/>
       <c r="N13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O13" s="9"/>
+      <c r="O13" s="8"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R13" s="5"/>
-      <c r="S13" s="14"/>
+      <c r="S13" s="13"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="14"/>
+      <c r="U13" s="13"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="14"/>
+      <c r="W13" s="13"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="14"/>
+      <c r="Y13" s="13"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AB13" s="5"/>
-      <c r="AC13" s="14"/>
+      <c r="AC13" s="13"/>
       <c r="AD13" s="5"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
       <c r="AI13" s="5"/>
     </row>
     <row r="14" spans="1:43" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="31"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="7"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="10"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="7"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="10"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="7"/>
@@ -1545,80 +1600,80 @@
       <c r="AC14" s="6"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="6"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
       <c r="AI14" s="7"/>
     </row>
     <row r="15" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="L15" s="9"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="5"/>
       <c r="N15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="9"/>
+      <c r="O15" s="8"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R15" s="5"/>
-      <c r="S15" s="14"/>
+      <c r="S15" s="13"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="14"/>
+      <c r="U15" s="13"/>
       <c r="V15" s="5"/>
-      <c r="W15" s="14"/>
+      <c r="W15" s="13"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="14"/>
+      <c r="Y15" s="13"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AB15" s="5"/>
-      <c r="AC15" s="14"/>
+      <c r="AC15" s="13"/>
       <c r="AD15" s="5"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
       <c r="AI15" s="5"/>
     </row>
     <row r="16" spans="1:43" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="31"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="7"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="10"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="7"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="10"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
@@ -1635,109 +1690,109 @@
       <c r="AC16" s="6"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="6"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
       <c r="AI16" s="7"/>
     </row>
     <row r="17" spans="1:35" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
         <v>6</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="14" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="9"/>
+      <c r="L17" s="8"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="25" t="s">
+      <c r="N17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="9"/>
+      <c r="O17" s="8"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="25" t="s">
+      <c r="Q17" s="14" t="s">
         <v>66</v>
       </c>
       <c r="R17" s="5"/>
-      <c r="S17" s="26"/>
+      <c r="S17" s="20"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="26"/>
+      <c r="U17" s="20"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="26"/>
+      <c r="W17" s="20"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="26"/>
+      <c r="Y17" s="20"/>
       <c r="Z17" s="5"/>
-      <c r="AA17" s="25" t="s">
+      <c r="AA17" s="14" t="s">
         <v>25</v>
       </c>
       <c r="AB17" s="5"/>
-      <c r="AC17" s="26"/>
+      <c r="AC17" s="20"/>
       <c r="AD17" s="5"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
       <c r="AI17" s="5"/>
     </row>
     <row r="18" spans="1:35" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="10"/>
+      <c r="Q18" s="9"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="10"/>
+      <c r="S18" s="9"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="10"/>
+      <c r="U18" s="9"/>
       <c r="V18" s="7"/>
-      <c r="W18" s="10"/>
+      <c r="W18" s="9"/>
       <c r="X18" s="7"/>
-      <c r="Y18" s="10"/>
+      <c r="Y18" s="9"/>
       <c r="Z18" s="7"/>
-      <c r="AA18" s="10"/>
+      <c r="AA18" s="9"/>
       <c r="AB18" s="7"/>
-      <c r="AC18" s="10"/>
+      <c r="AC18" s="9"/>
       <c r="AD18" s="7"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
       <c r="AI18" s="7"/>
     </row>
     <row r="19" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+      <c r="A19" s="10">
         <v>7</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="5"/>
       <c r="E19" s="4" t="s">
         <v>27</v>
@@ -1746,60 +1801,60 @@
       <c r="G19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="9"/>
+      <c r="L19" s="8"/>
       <c r="M19" s="5"/>
       <c r="N19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O19" s="25"/>
-      <c r="P19" s="28"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
       <c r="Q19" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R19" s="5"/>
-      <c r="S19" s="14"/>
+      <c r="S19" s="13"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="14"/>
+      <c r="U19" s="13"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="14"/>
+      <c r="W19" s="13"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="14"/>
+      <c r="Y19" s="13"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AB19" s="5"/>
-      <c r="AC19" s="14"/>
+      <c r="AC19" s="13"/>
       <c r="AD19" s="5"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
       <c r="AI19" s="5"/>
     </row>
     <row r="20" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="10"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="18"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="7"/>
       <c r="S20" s="6"/>
@@ -1815,19 +1870,19 @@
       <c r="AC20" s="6"/>
       <c r="AD20" s="7"/>
       <c r="AE20" s="6"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
       <c r="AI20" s="7"/>
     </row>
     <row r="21" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
+      <c r="A21" s="10">
         <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="5"/>
       <c r="E21" s="4" t="s">
         <v>29</v>
@@ -1836,60 +1891,60 @@
       <c r="G21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="8"/>
       <c r="M21" s="5"/>
       <c r="N21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O21" s="25"/>
-      <c r="P21" s="28"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="15"/>
       <c r="Q21" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R21" s="5"/>
-      <c r="S21" s="14"/>
+      <c r="S21" s="13"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="14"/>
+      <c r="U21" s="13"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="14"/>
+      <c r="W21" s="13"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="14"/>
+      <c r="Y21" s="13"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AB21" s="5"/>
-      <c r="AC21" s="14"/>
+      <c r="AC21" s="13"/>
       <c r="AD21" s="5"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
       <c r="AI21" s="5"/>
     </row>
     <row r="22" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="7"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="10"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="31"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="18"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="7"/>
       <c r="S22" s="6"/>
@@ -1905,19 +1960,19 @@
       <c r="AC22" s="6"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="6"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
       <c r="AI22" s="7"/>
     </row>
     <row r="23" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
+      <c r="A23" s="10">
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="5"/>
       <c r="E23" s="4" t="s">
         <v>61</v>
@@ -1926,20 +1981,20 @@
       <c r="G23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="9"/>
+      <c r="L23" s="8"/>
       <c r="M23" s="5"/>
       <c r="N23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="25"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="11" t="s">
+      <c r="O23" s="14"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="31" t="s">
         <v>66</v>
       </c>
       <c r="R23" s="5"/>
@@ -1958,28 +2013,28 @@
       <c r="AC23" s="4"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="4"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
       <c r="AI23" s="5"/>
     </row>
     <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="10"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="7"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="10"/>
+      <c r="L24" s="9"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="31"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="18"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="7"/>
       <c r="S24" s="6"/>
@@ -1995,19 +2050,19 @@
       <c r="AC24" s="6"/>
       <c r="AD24" s="7"/>
       <c r="AE24" s="6"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
       <c r="AI24" s="7"/>
     </row>
     <row r="25" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="A25" s="10">
         <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="5"/>
       <c r="E25" s="4" t="s">
         <v>61</v>
@@ -2016,20 +2071,20 @@
       <c r="G25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="L25" s="9"/>
+      <c r="L25" s="8"/>
       <c r="M25" s="5"/>
       <c r="N25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="25"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="11" t="s">
+      <c r="O25" s="14"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="31" t="s">
         <v>66</v>
       </c>
       <c r="R25" s="5"/>
@@ -2048,28 +2103,28 @@
       <c r="AC25" s="4"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="4"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
       <c r="AI25" s="5"/>
     </row>
     <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="10"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="7"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="10"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="31"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="18"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="7"/>
       <c r="S26" s="6"/>
@@ -2085,19 +2140,19 @@
       <c r="AC26" s="6"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="6"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
       <c r="AI26" s="7"/>
     </row>
     <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+      <c r="A27" s="10">
         <v>11</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="5"/>
       <c r="E27" s="4" t="s">
         <v>61</v>
@@ -2106,20 +2161,20 @@
       <c r="G27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="9"/>
+      <c r="L27" s="8"/>
       <c r="M27" s="5"/>
       <c r="N27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O27" s="25"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="11" t="s">
+      <c r="O27" s="14"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="31" t="s">
         <v>66</v>
       </c>
       <c r="R27" s="5"/>
@@ -2138,28 +2193,28 @@
       <c r="AC27" s="4"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="4"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
       <c r="AI27" s="5"/>
     </row>
     <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="10"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="7"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="7"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="10"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="31"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="7"/>
       <c r="S28" s="6"/>
@@ -2175,19 +2230,19 @@
       <c r="AC28" s="6"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="6"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
       <c r="AI28" s="7"/>
     </row>
     <row r="29" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+      <c r="A29" s="10">
         <v>12</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="5"/>
       <c r="E29" s="4" t="s">
         <v>62</v>
@@ -2196,20 +2251,20 @@
       <c r="G29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="L29" s="9"/>
+      <c r="L29" s="8"/>
       <c r="M29" s="5"/>
       <c r="N29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O29" s="25"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="11" t="s">
+      <c r="O29" s="14"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="31" t="s">
         <v>66</v>
       </c>
       <c r="R29" s="5"/>
@@ -2228,28 +2283,28 @@
       <c r="AC29" s="4"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="4"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
       <c r="AI29" s="5"/>
     </row>
     <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="10"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="7"/>
       <c r="E30" s="6"/>
       <c r="F30" s="7"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="7"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="10"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="31"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="18"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="7"/>
       <c r="S30" s="6"/>
@@ -2265,19 +2320,19 @@
       <c r="AC30" s="6"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="6"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="10"/>
-      <c r="AH30" s="10"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
       <c r="AI30" s="7"/>
     </row>
     <row r="31" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
+      <c r="A31" s="10">
         <v>13</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4" t="s">
         <v>63</v>
@@ -2286,20 +2341,20 @@
       <c r="G31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="L31" s="9"/>
+      <c r="L31" s="8"/>
       <c r="M31" s="5"/>
       <c r="N31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O31" s="9"/>
+      <c r="O31" s="8"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="11" t="s">
+      <c r="Q31" s="31" t="s">
         <v>66</v>
       </c>
       <c r="R31" s="5"/>
@@ -2318,27 +2373,27 @@
       <c r="AC31" s="4"/>
       <c r="AD31" s="5"/>
       <c r="AE31" s="4"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
       <c r="AI31" s="5"/>
     </row>
     <row r="32" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="10"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="7"/>
       <c r="E32" s="6"/>
       <c r="F32" s="7"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="7"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="10"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="7"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="10"/>
+      <c r="O32" s="9"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="7"/>
@@ -2355,19 +2410,19 @@
       <c r="AC32" s="6"/>
       <c r="AD32" s="7"/>
       <c r="AE32" s="6"/>
-      <c r="AF32" s="10"/>
-      <c r="AG32" s="10"/>
-      <c r="AH32" s="10"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
       <c r="AI32" s="7"/>
     </row>
     <row r="33" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
+      <c r="A33" s="10">
         <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="5"/>
       <c r="E33" s="4" t="s">
         <v>63</v>
@@ -2376,20 +2431,20 @@
       <c r="G33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="L33" s="9"/>
+      <c r="L33" s="8"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="11" t="s">
+      <c r="N33" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="9"/>
+      <c r="O33" s="8"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="31" t="s">
         <v>66</v>
       </c>
       <c r="R33" s="5"/>
@@ -2408,27 +2463,27 @@
       <c r="AC33" s="4"/>
       <c r="AD33" s="5"/>
       <c r="AE33" s="4"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
       <c r="AI33" s="5"/>
     </row>
     <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="10"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="7"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
       <c r="J34" s="7"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="10"/>
+      <c r="L34" s="9"/>
       <c r="M34" s="7"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="10"/>
+      <c r="O34" s="9"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="7"/>
@@ -2445,399 +2500,399 @@
       <c r="AC34" s="6"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="6"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
       <c r="AI34" s="7"/>
     </row>
     <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
+      <c r="A35" s="10">
         <v>15</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="5"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="5"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="8" t="s">
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="L35" s="9"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="11" t="s">
+      <c r="L35" s="32"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="O35" s="9"/>
-      <c r="P35" s="5"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="39"/>
       <c r="Q35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R35" s="5"/>
+      <c r="R35" s="15"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="5"/>
+      <c r="T35" s="15"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="5"/>
+      <c r="V35" s="15"/>
       <c r="W35" s="4"/>
-      <c r="X35" s="5"/>
+      <c r="X35" s="15"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="5"/>
+      <c r="Z35" s="15"/>
       <c r="AA35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB35" s="5"/>
+      <c r="AB35" s="15"/>
       <c r="AC35" s="4"/>
-      <c r="AD35" s="5"/>
+      <c r="AD35" s="15"/>
       <c r="AE35" s="4"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="5"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="15"/>
     </row>
     <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="7"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="10"/>
-      <c r="AG36" s="10"/>
-      <c r="AH36" s="10"/>
-      <c r="AI36" s="7"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="18"/>
     </row>
     <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
-        <v>16</v>
+      <c r="A37" s="10">
+        <v>15</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="5"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
-      <c r="F37" s="5"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="4" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="8" t="s">
-        <v>82</v>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="12" t="s">
+        <v>94</v>
       </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="11" t="s">
-        <v>7</v>
+      <c r="L37" s="32"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="31" t="s">
+        <v>32</v>
       </c>
-      <c r="O37" s="9"/>
-      <c r="P37" s="5"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="39"/>
       <c r="Q37" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R37" s="5"/>
+      <c r="R37" s="15"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="5"/>
+      <c r="T37" s="15"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="5"/>
+      <c r="V37" s="15"/>
       <c r="W37" s="4"/>
-      <c r="X37" s="5"/>
+      <c r="X37" s="15"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="5"/>
+      <c r="Z37" s="15"/>
       <c r="AA37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB37" s="5"/>
+      <c r="AB37" s="15"/>
       <c r="AC37" s="4"/>
-      <c r="AD37" s="5"/>
+      <c r="AD37" s="15"/>
       <c r="AE37" s="4"/>
-      <c r="AF37" s="9"/>
-      <c r="AG37" s="9"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="5"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="15"/>
     </row>
     <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="7"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="10"/>
-      <c r="AG38" s="10"/>
-      <c r="AH38" s="10"/>
-      <c r="AI38" s="7"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="18"/>
     </row>
     <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
-        <v>17</v>
+      <c r="A39" s="10">
+        <v>15</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="5"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
-      <c r="F39" s="5"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="4" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="8" t="s">
-        <v>83</v>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="12" t="s">
+        <v>96</v>
       </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="11" t="s">
-        <v>7</v>
+      <c r="L39" s="32"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="31" t="s">
+        <v>32</v>
       </c>
-      <c r="O39" s="9"/>
-      <c r="P39" s="5"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="39"/>
       <c r="Q39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R39" s="5"/>
+      <c r="R39" s="15"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="5"/>
+      <c r="T39" s="15"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="5"/>
+      <c r="V39" s="15"/>
       <c r="W39" s="4"/>
-      <c r="X39" s="5"/>
+      <c r="X39" s="15"/>
       <c r="Y39" s="4"/>
-      <c r="Z39" s="5"/>
+      <c r="Z39" s="15"/>
       <c r="AA39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB39" s="5"/>
+      <c r="AB39" s="15"/>
       <c r="AC39" s="4"/>
-      <c r="AD39" s="5"/>
+      <c r="AD39" s="15"/>
       <c r="AE39" s="4"/>
-      <c r="AF39" s="9"/>
-      <c r="AG39" s="9"/>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="5"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="14"/>
+      <c r="AI39" s="15"/>
     </row>
     <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="7"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="7"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="10"/>
-      <c r="AG40" s="10"/>
-      <c r="AH40" s="10"/>
-      <c r="AI40" s="7"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="18"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="18"/>
     </row>
     <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
-        <v>18</v>
+      <c r="A41" s="10">
+        <v>15</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="5"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
-      <c r="F41" s="5"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="4" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="8" t="s">
-        <v>84</v>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="12" t="s">
+        <v>98</v>
       </c>
-      <c r="L41" s="9"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="4" t="s">
-        <v>7</v>
+      <c r="L41" s="32"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="31" t="s">
+        <v>32</v>
       </c>
-      <c r="O41" s="9"/>
-      <c r="P41" s="5"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="39"/>
       <c r="Q41" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R41" s="5"/>
+      <c r="R41" s="15"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="5"/>
+      <c r="T41" s="15"/>
       <c r="U41" s="4"/>
-      <c r="V41" s="5"/>
+      <c r="V41" s="15"/>
       <c r="W41" s="4"/>
-      <c r="X41" s="5"/>
+      <c r="X41" s="15"/>
       <c r="Y41" s="4"/>
-      <c r="Z41" s="5"/>
+      <c r="Z41" s="15"/>
       <c r="AA41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB41" s="5"/>
+      <c r="AB41" s="15"/>
       <c r="AC41" s="4"/>
-      <c r="AD41" s="5"/>
+      <c r="AD41" s="15"/>
       <c r="AE41" s="4"/>
-      <c r="AF41" s="9"/>
-      <c r="AG41" s="9"/>
-      <c r="AH41" s="9"/>
-      <c r="AI41" s="5"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="15"/>
     </row>
     <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="7"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="7"/>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="10"/>
-      <c r="AG42" s="10"/>
-      <c r="AH42" s="10"/>
-      <c r="AI42" s="7"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="16"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="18"/>
     </row>
     <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
-        <v>19</v>
+      <c r="A43" s="10">
+        <v>16</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="9"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="5"/>
       <c r="E43" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="8" t="s">
-        <v>85</v>
+      <c r="K43" s="12" t="s">
+        <v>82</v>
       </c>
-      <c r="L43" s="9"/>
+      <c r="L43" s="8"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="4" t="s">
+      <c r="N43" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="O43" s="9"/>
+      <c r="O43" s="8"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="4" t="s">
         <v>66</v>
@@ -2858,27 +2913,27 @@
       <c r="AC43" s="4"/>
       <c r="AD43" s="5"/>
       <c r="AE43" s="4"/>
-      <c r="AF43" s="9"/>
-      <c r="AG43" s="9"/>
-      <c r="AH43" s="9"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
       <c r="AI43" s="5"/>
     </row>
     <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="10"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="7"/>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
       <c r="J44" s="7"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="10"/>
+      <c r="L44" s="9"/>
       <c r="M44" s="7"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="10"/>
+      <c r="O44" s="9"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="7"/>
@@ -2895,39 +2950,39 @@
       <c r="AC44" s="6"/>
       <c r="AD44" s="7"/>
       <c r="AE44" s="6"/>
-      <c r="AF44" s="10"/>
-      <c r="AG44" s="10"/>
-      <c r="AH44" s="10"/>
+      <c r="AF44" s="9"/>
+      <c r="AG44" s="9"/>
+      <c r="AH44" s="9"/>
       <c r="AI44" s="7"/>
     </row>
     <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12">
-        <v>20</v>
+      <c r="A45" s="10">
+        <v>17</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
-      <c r="C45" s="9"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="5"/>
       <c r="E45" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="8" t="s">
-        <v>86</v>
+      <c r="K45" s="12" t="s">
+        <v>83</v>
       </c>
-      <c r="L45" s="9"/>
+      <c r="L45" s="8"/>
       <c r="M45" s="5"/>
-      <c r="N45" s="4" t="s">
+      <c r="N45" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="O45" s="9"/>
+      <c r="O45" s="8"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="4" t="s">
         <v>66</v>
@@ -2948,27 +3003,27 @@
       <c r="AC45" s="4"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="4"/>
-      <c r="AF45" s="9"/>
-      <c r="AG45" s="9"/>
-      <c r="AH45" s="9"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
       <c r="AI45" s="5"/>
     </row>
     <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="10"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="7"/>
       <c r="E46" s="6"/>
       <c r="F46" s="7"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
       <c r="J46" s="7"/>
       <c r="K46" s="6"/>
-      <c r="L46" s="10"/>
+      <c r="L46" s="9"/>
       <c r="M46" s="7"/>
       <c r="N46" s="6"/>
-      <c r="O46" s="10"/>
+      <c r="O46" s="9"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="7"/>
@@ -2985,39 +3040,39 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="10"/>
-      <c r="AG46" s="10"/>
-      <c r="AH46" s="10"/>
+      <c r="AF46" s="9"/>
+      <c r="AG46" s="9"/>
+      <c r="AH46" s="9"/>
       <c r="AI46" s="7"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12">
-        <v>21</v>
+    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
+        <v>18</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
-      <c r="C47" s="9"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="5"/>
       <c r="E47" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="8" t="s">
-        <v>87</v>
+      <c r="K47" s="12" t="s">
+        <v>84</v>
       </c>
-      <c r="L47" s="9"/>
+      <c r="L47" s="8"/>
       <c r="M47" s="5"/>
       <c r="N47" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O47" s="9"/>
+      <c r="O47" s="8"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="4" t="s">
         <v>66</v>
@@ -3038,27 +3093,27 @@
       <c r="AC47" s="4"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="4"/>
-      <c r="AF47" s="9"/>
-      <c r="AG47" s="9"/>
-      <c r="AH47" s="9"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
       <c r="AI47" s="5"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
+    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="11"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="10"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="7"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
       <c r="G48" s="6"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
       <c r="J48" s="7"/>
       <c r="K48" s="6"/>
-      <c r="L48" s="10"/>
+      <c r="L48" s="9"/>
       <c r="M48" s="7"/>
       <c r="N48" s="6"/>
-      <c r="O48" s="10"/>
+      <c r="O48" s="9"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="7"/>
@@ -3075,39 +3130,39 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="7"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="10"/>
-      <c r="AG48" s="10"/>
-      <c r="AH48" s="10"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="9"/>
       <c r="AI48" s="7"/>
     </row>
     <row r="49" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
-        <v>22</v>
+      <c r="A49" s="10">
+        <v>19</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
-      <c r="C49" s="9"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="5"/>
       <c r="E49" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="8" t="s">
-        <v>88</v>
+      <c r="K49" s="12" t="s">
+        <v>85</v>
       </c>
-      <c r="L49" s="9"/>
+      <c r="L49" s="8"/>
       <c r="M49" s="5"/>
       <c r="N49" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O49" s="9"/>
+      <c r="O49" s="8"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="4" t="s">
         <v>66</v>
@@ -3128,35 +3183,27 @@
       <c r="AC49" s="4"/>
       <c r="AD49" s="5"/>
       <c r="AE49" s="4"/>
-      <c r="AF49" s="9"/>
-      <c r="AG49" s="9"/>
-      <c r="AH49" s="9"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
       <c r="AI49" s="5"/>
-      <c r="AJ49" s="1"/>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="1"/>
-      <c r="AM49" s="1"/>
-      <c r="AN49" s="1"/>
-      <c r="AO49" s="1"/>
-      <c r="AP49" s="1"/>
-      <c r="AQ49" s="1"/>
     </row>
     <row r="50" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="10"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="7"/>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
       <c r="G50" s="6"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
       <c r="J50" s="7"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="10"/>
+      <c r="L50" s="9"/>
       <c r="M50" s="7"/>
       <c r="N50" s="6"/>
-      <c r="O50" s="10"/>
+      <c r="O50" s="9"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="7"/>
@@ -3173,47 +3220,39 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="7"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="10"/>
-      <c r="AG50" s="10"/>
-      <c r="AH50" s="10"/>
+      <c r="AF50" s="9"/>
+      <c r="AG50" s="9"/>
+      <c r="AH50" s="9"/>
       <c r="AI50" s="7"/>
-      <c r="AJ50" s="1"/>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="1"/>
-      <c r="AM50" s="1"/>
-      <c r="AN50" s="1"/>
-      <c r="AO50" s="1"/>
-      <c r="AP50" s="1"/>
-      <c r="AQ50" s="1"/>
     </row>
     <row r="51" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12">
-        <v>23</v>
+      <c r="A51" s="10">
+        <v>20</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="9"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="5"/>
       <c r="E51" s="4" t="s">
         <v>65</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="8" t="s">
-        <v>89</v>
+      <c r="K51" s="12" t="s">
+        <v>86</v>
       </c>
-      <c r="L51" s="9"/>
+      <c r="L51" s="8"/>
       <c r="M51" s="5"/>
       <c r="N51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O51" s="9"/>
+      <c r="O51" s="8"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="4" t="s">
         <v>66</v>
@@ -3234,35 +3273,27 @@
       <c r="AC51" s="4"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="4"/>
-      <c r="AF51" s="9"/>
-      <c r="AG51" s="9"/>
-      <c r="AH51" s="9"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
       <c r="AI51" s="5"/>
-      <c r="AJ51" s="1"/>
-      <c r="AK51" s="1"/>
-      <c r="AL51" s="1"/>
-      <c r="AM51" s="1"/>
-      <c r="AN51" s="1"/>
-      <c r="AO51" s="1"/>
-      <c r="AP51" s="1"/>
-      <c r="AQ51" s="1"/>
     </row>
     <row r="52" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="10"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="7"/>
       <c r="E52" s="6"/>
       <c r="F52" s="7"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
       <c r="J52" s="7"/>
       <c r="K52" s="6"/>
-      <c r="L52" s="10"/>
+      <c r="L52" s="9"/>
       <c r="M52" s="7"/>
       <c r="N52" s="6"/>
-      <c r="O52" s="10"/>
+      <c r="O52" s="9"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
@@ -3279,47 +3310,39 @@
       <c r="AC52" s="6"/>
       <c r="AD52" s="7"/>
       <c r="AE52" s="6"/>
-      <c r="AF52" s="10"/>
-      <c r="AG52" s="10"/>
-      <c r="AH52" s="10"/>
+      <c r="AF52" s="9"/>
+      <c r="AG52" s="9"/>
+      <c r="AH52" s="9"/>
       <c r="AI52" s="7"/>
-      <c r="AJ52" s="1"/>
-      <c r="AK52" s="1"/>
-      <c r="AL52" s="1"/>
-      <c r="AM52" s="1"/>
-      <c r="AN52" s="1"/>
-      <c r="AO52" s="1"/>
-      <c r="AP52" s="1"/>
-      <c r="AQ52" s="1"/>
-    </row>
-    <row r="53" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12">
-        <v>24</v>
+    </row>
+    <row r="53" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
+        <v>21</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="9"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="5"/>
       <c r="E53" s="4" t="s">
         <v>65</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
       <c r="J53" s="5"/>
-      <c r="K53" s="8" t="s">
-        <v>90</v>
+      <c r="K53" s="12" t="s">
+        <v>87</v>
       </c>
-      <c r="L53" s="9"/>
+      <c r="L53" s="8"/>
       <c r="M53" s="5"/>
       <c r="N53" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O53" s="9"/>
+      <c r="O53" s="8"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="4" t="s">
         <v>66</v>
@@ -3340,35 +3363,27 @@
       <c r="AC53" s="4"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="4"/>
-      <c r="AF53" s="9"/>
-      <c r="AG53" s="9"/>
-      <c r="AH53" s="9"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8"/>
       <c r="AI53" s="5"/>
-      <c r="AJ53" s="1"/>
-      <c r="AK53" s="1"/>
-      <c r="AL53" s="1"/>
-      <c r="AM53" s="1"/>
-      <c r="AN53" s="1"/>
-      <c r="AO53" s="1"/>
-      <c r="AP53" s="1"/>
-      <c r="AQ53" s="1"/>
-    </row>
-    <row r="54" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
+    </row>
+    <row r="54" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="10"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="7"/>
       <c r="E54" s="6"/>
       <c r="F54" s="7"/>
       <c r="G54" s="6"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
       <c r="J54" s="7"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="10"/>
+      <c r="L54" s="9"/>
       <c r="M54" s="7"/>
       <c r="N54" s="6"/>
-      <c r="O54" s="10"/>
+      <c r="O54" s="9"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="7"/>
@@ -3385,47 +3400,39 @@
       <c r="AC54" s="6"/>
       <c r="AD54" s="7"/>
       <c r="AE54" s="6"/>
-      <c r="AF54" s="10"/>
-      <c r="AG54" s="10"/>
-      <c r="AH54" s="10"/>
+      <c r="AF54" s="9"/>
+      <c r="AG54" s="9"/>
+      <c r="AH54" s="9"/>
       <c r="AI54" s="7"/>
-      <c r="AJ54" s="1"/>
-      <c r="AK54" s="1"/>
-      <c r="AL54" s="1"/>
-      <c r="AM54" s="1"/>
-      <c r="AN54" s="1"/>
-      <c r="AO54" s="1"/>
-      <c r="AP54" s="1"/>
-      <c r="AQ54" s="1"/>
     </row>
     <row r="55" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12">
-        <v>25</v>
+      <c r="A55" s="10">
+        <v>22</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="9"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="5"/>
       <c r="E55" s="4" t="s">
         <v>65</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="8" t="s">
-        <v>91</v>
+      <c r="K55" s="12" t="s">
+        <v>88</v>
       </c>
-      <c r="L55" s="9"/>
+      <c r="L55" s="8"/>
       <c r="M55" s="5"/>
       <c r="N55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O55" s="9"/>
+      <c r="O55" s="8"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="4" t="s">
         <v>66</v>
@@ -3446,9 +3453,9 @@
       <c r="AC55" s="4"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="4"/>
-      <c r="AF55" s="9"/>
-      <c r="AG55" s="9"/>
-      <c r="AH55" s="9"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
       <c r="AI55" s="5"/>
       <c r="AJ55" s="1"/>
       <c r="AK55" s="1"/>
@@ -3460,21 +3467,21 @@
       <c r="AQ55" s="1"/>
     </row>
     <row r="56" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="13"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="10"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="7"/>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
       <c r="J56" s="7"/>
       <c r="K56" s="6"/>
-      <c r="L56" s="10"/>
+      <c r="L56" s="9"/>
       <c r="M56" s="7"/>
       <c r="N56" s="6"/>
-      <c r="O56" s="10"/>
+      <c r="O56" s="9"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="7"/>
@@ -3491,9 +3498,9 @@
       <c r="AC56" s="6"/>
       <c r="AD56" s="7"/>
       <c r="AE56" s="6"/>
-      <c r="AF56" s="10"/>
-      <c r="AG56" s="10"/>
-      <c r="AH56" s="10"/>
+      <c r="AF56" s="9"/>
+      <c r="AG56" s="9"/>
+      <c r="AH56" s="9"/>
       <c r="AI56" s="7"/>
       <c r="AJ56" s="1"/>
       <c r="AK56" s="1"/>
@@ -3505,33 +3512,33 @@
       <c r="AQ56" s="1"/>
     </row>
     <row r="57" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12">
-        <v>26</v>
+      <c r="A57" s="10">
+        <v>23</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="9"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="5"/>
       <c r="E57" s="4" t="s">
         <v>65</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
       <c r="J57" s="5"/>
-      <c r="K57" s="8" t="s">
-        <v>92</v>
+      <c r="K57" s="12" t="s">
+        <v>89</v>
       </c>
-      <c r="L57" s="9"/>
+      <c r="L57" s="8"/>
       <c r="M57" s="5"/>
       <c r="N57" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O57" s="9"/>
+      <c r="O57" s="8"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="4" t="s">
         <v>66</v>
@@ -3552,9 +3559,9 @@
       <c r="AC57" s="4"/>
       <c r="AD57" s="5"/>
       <c r="AE57" s="4"/>
-      <c r="AF57" s="9"/>
-      <c r="AG57" s="9"/>
-      <c r="AH57" s="9"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
       <c r="AI57" s="5"/>
       <c r="AJ57" s="1"/>
       <c r="AK57" s="1"/>
@@ -3566,21 +3573,21 @@
       <c r="AQ57" s="1"/>
     </row>
     <row r="58" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="13"/>
+      <c r="A58" s="11"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="10"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="7"/>
       <c r="E58" s="6"/>
       <c r="F58" s="7"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
       <c r="J58" s="7"/>
       <c r="K58" s="6"/>
-      <c r="L58" s="10"/>
+      <c r="L58" s="9"/>
       <c r="M58" s="7"/>
       <c r="N58" s="6"/>
-      <c r="O58" s="10"/>
+      <c r="O58" s="9"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="7"/>
@@ -3597,9 +3604,9 @@
       <c r="AC58" s="6"/>
       <c r="AD58" s="7"/>
       <c r="AE58" s="6"/>
-      <c r="AF58" s="10"/>
-      <c r="AG58" s="10"/>
-      <c r="AH58" s="10"/>
+      <c r="AF58" s="9"/>
+      <c r="AG58" s="9"/>
+      <c r="AH58" s="9"/>
       <c r="AI58" s="7"/>
       <c r="AJ58" s="1"/>
       <c r="AK58" s="1"/>
@@ -3611,41 +3618,57 @@
       <c r="AQ58" s="1"/>
     </row>
     <row r="59" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
-      <c r="AB59" s="1"/>
-      <c r="AC59" s="1"/>
-      <c r="AD59" s="1"/>
-      <c r="AE59" s="1"/>
-      <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
-      <c r="AH59" s="1"/>
-      <c r="AI59" s="1"/>
+      <c r="A59" s="10">
+        <v>24</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L59" s="8"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R59" s="5"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="5"/>
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
@@ -3656,41 +3679,41 @@
       <c r="AQ59" s="1"/>
     </row>
     <row r="60" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
-      <c r="AF60" s="1"/>
-      <c r="AG60" s="1"/>
-      <c r="AH60" s="1"/>
-      <c r="AI60" s="1"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="6"/>
+      <c r="AF60" s="9"/>
+      <c r="AG60" s="9"/>
+      <c r="AH60" s="9"/>
+      <c r="AI60" s="7"/>
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
@@ -3701,41 +3724,57 @@
       <c r="AQ60" s="1"/>
     </row>
     <row r="61" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
-      <c r="AB61" s="1"/>
-      <c r="AC61" s="1"/>
-      <c r="AD61" s="1"/>
-      <c r="AE61" s="1"/>
-      <c r="AF61" s="1"/>
-      <c r="AG61" s="1"/>
-      <c r="AH61" s="1"/>
-      <c r="AI61" s="1"/>
+      <c r="A61" s="10">
+        <v>25</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L61" s="8"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R61" s="5"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="4"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="5"/>
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
@@ -3746,41 +3785,41 @@
       <c r="AQ61" s="1"/>
     </row>
     <row r="62" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
-      <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
-      <c r="AF62" s="1"/>
-      <c r="AG62" s="1"/>
-      <c r="AH62" s="1"/>
-      <c r="AI62" s="1"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="6"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="6"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="6"/>
+      <c r="AF62" s="9"/>
+      <c r="AG62" s="9"/>
+      <c r="AH62" s="9"/>
+      <c r="AI62" s="7"/>
       <c r="AJ62" s="1"/>
       <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
@@ -3791,41 +3830,57 @@
       <c r="AQ62" s="1"/>
     </row>
     <row r="63" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
-      <c r="AB63" s="1"/>
-      <c r="AC63" s="1"/>
-      <c r="AD63" s="1"/>
-      <c r="AE63" s="1"/>
-      <c r="AF63" s="1"/>
-      <c r="AG63" s="1"/>
-      <c r="AH63" s="1"/>
-      <c r="AI63" s="1"/>
+      <c r="A63" s="10">
+        <v>26</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L63" s="8"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R63" s="5"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="4"/>
+      <c r="AF63" s="8"/>
+      <c r="AG63" s="8"/>
+      <c r="AH63" s="8"/>
+      <c r="AI63" s="5"/>
       <c r="AJ63" s="1"/>
       <c r="AK63" s="1"/>
       <c r="AL63" s="1"/>
@@ -3836,41 +3891,41 @@
       <c r="AQ63" s="1"/>
     </row>
     <row r="64" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-      <c r="AA64" s="1"/>
-      <c r="AB64" s="1"/>
-      <c r="AC64" s="1"/>
-      <c r="AD64" s="1"/>
-      <c r="AE64" s="1"/>
-      <c r="AF64" s="1"/>
-      <c r="AG64" s="1"/>
-      <c r="AH64" s="1"/>
-      <c r="AI64" s="1"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="9"/>
+      <c r="AG64" s="9"/>
+      <c r="AH64" s="9"/>
+      <c r="AI64" s="7"/>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
       <c r="AL64" s="1"/>
@@ -45820,123 +45875,372 @@
       <c r="AP996" s="1"/>
       <c r="AQ996" s="1"/>
     </row>
+    <row r="997" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A997" s="1"/>
+      <c r="B997" s="1"/>
+      <c r="C997" s="1"/>
+      <c r="D997" s="1"/>
+      <c r="E997" s="1"/>
+      <c r="F997" s="1"/>
+      <c r="G997" s="1"/>
+      <c r="H997" s="1"/>
+      <c r="I997" s="1"/>
+      <c r="J997" s="1"/>
+      <c r="K997" s="1"/>
+      <c r="L997" s="1"/>
+      <c r="M997" s="1"/>
+      <c r="N997" s="1"/>
+      <c r="O997" s="1"/>
+      <c r="P997" s="1"/>
+      <c r="Q997" s="1"/>
+      <c r="R997" s="1"/>
+      <c r="S997" s="1"/>
+      <c r="T997" s="1"/>
+      <c r="U997" s="1"/>
+      <c r="V997" s="1"/>
+      <c r="W997" s="1"/>
+      <c r="X997" s="1"/>
+      <c r="Y997" s="1"/>
+      <c r="Z997" s="1"/>
+      <c r="AA997" s="1"/>
+      <c r="AB997" s="1"/>
+      <c r="AC997" s="1"/>
+      <c r="AD997" s="1"/>
+      <c r="AE997" s="1"/>
+      <c r="AF997" s="1"/>
+      <c r="AG997" s="1"/>
+      <c r="AH997" s="1"/>
+      <c r="AI997" s="1"/>
+      <c r="AJ997" s="1"/>
+      <c r="AK997" s="1"/>
+      <c r="AL997" s="1"/>
+      <c r="AM997" s="1"/>
+      <c r="AN997" s="1"/>
+      <c r="AO997" s="1"/>
+      <c r="AP997" s="1"/>
+      <c r="AQ997" s="1"/>
+    </row>
+    <row r="998" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A998" s="1"/>
+      <c r="B998" s="1"/>
+      <c r="C998" s="1"/>
+      <c r="D998" s="1"/>
+      <c r="E998" s="1"/>
+      <c r="F998" s="1"/>
+      <c r="G998" s="1"/>
+      <c r="H998" s="1"/>
+      <c r="I998" s="1"/>
+      <c r="J998" s="1"/>
+      <c r="K998" s="1"/>
+      <c r="L998" s="1"/>
+      <c r="M998" s="1"/>
+      <c r="N998" s="1"/>
+      <c r="O998" s="1"/>
+      <c r="P998" s="1"/>
+      <c r="Q998" s="1"/>
+      <c r="R998" s="1"/>
+      <c r="S998" s="1"/>
+      <c r="T998" s="1"/>
+      <c r="U998" s="1"/>
+      <c r="V998" s="1"/>
+      <c r="W998" s="1"/>
+      <c r="X998" s="1"/>
+      <c r="Y998" s="1"/>
+      <c r="Z998" s="1"/>
+      <c r="AA998" s="1"/>
+      <c r="AB998" s="1"/>
+      <c r="AC998" s="1"/>
+      <c r="AD998" s="1"/>
+      <c r="AE998" s="1"/>
+      <c r="AF998" s="1"/>
+      <c r="AG998" s="1"/>
+      <c r="AH998" s="1"/>
+      <c r="AI998" s="1"/>
+      <c r="AJ998" s="1"/>
+      <c r="AK998" s="1"/>
+      <c r="AL998" s="1"/>
+      <c r="AM998" s="1"/>
+      <c r="AN998" s="1"/>
+      <c r="AO998" s="1"/>
+      <c r="AP998" s="1"/>
+      <c r="AQ998" s="1"/>
+    </row>
+    <row r="999" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A999" s="1"/>
+      <c r="B999" s="1"/>
+      <c r="C999" s="1"/>
+      <c r="D999" s="1"/>
+      <c r="E999" s="1"/>
+      <c r="F999" s="1"/>
+      <c r="G999" s="1"/>
+      <c r="H999" s="1"/>
+      <c r="I999" s="1"/>
+      <c r="J999" s="1"/>
+      <c r="K999" s="1"/>
+      <c r="L999" s="1"/>
+      <c r="M999" s="1"/>
+      <c r="N999" s="1"/>
+      <c r="O999" s="1"/>
+      <c r="P999" s="1"/>
+      <c r="Q999" s="1"/>
+      <c r="R999" s="1"/>
+      <c r="S999" s="1"/>
+      <c r="T999" s="1"/>
+      <c r="U999" s="1"/>
+      <c r="V999" s="1"/>
+      <c r="W999" s="1"/>
+      <c r="X999" s="1"/>
+      <c r="Y999" s="1"/>
+      <c r="Z999" s="1"/>
+      <c r="AA999" s="1"/>
+      <c r="AB999" s="1"/>
+      <c r="AC999" s="1"/>
+      <c r="AD999" s="1"/>
+      <c r="AE999" s="1"/>
+      <c r="AF999" s="1"/>
+      <c r="AG999" s="1"/>
+      <c r="AH999" s="1"/>
+      <c r="AI999" s="1"/>
+      <c r="AJ999" s="1"/>
+      <c r="AK999" s="1"/>
+      <c r="AL999" s="1"/>
+      <c r="AM999" s="1"/>
+      <c r="AN999" s="1"/>
+      <c r="AO999" s="1"/>
+      <c r="AP999" s="1"/>
+      <c r="AQ999" s="1"/>
+    </row>
+    <row r="1000" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1000" s="1"/>
+      <c r="B1000" s="1"/>
+      <c r="C1000" s="1"/>
+      <c r="D1000" s="1"/>
+      <c r="E1000" s="1"/>
+      <c r="F1000" s="1"/>
+      <c r="G1000" s="1"/>
+      <c r="H1000" s="1"/>
+      <c r="I1000" s="1"/>
+      <c r="J1000" s="1"/>
+      <c r="K1000" s="1"/>
+      <c r="L1000" s="1"/>
+      <c r="M1000" s="1"/>
+      <c r="N1000" s="1"/>
+      <c r="O1000" s="1"/>
+      <c r="P1000" s="1"/>
+      <c r="Q1000" s="1"/>
+      <c r="R1000" s="1"/>
+      <c r="S1000" s="1"/>
+      <c r="T1000" s="1"/>
+      <c r="U1000" s="1"/>
+      <c r="V1000" s="1"/>
+      <c r="W1000" s="1"/>
+      <c r="X1000" s="1"/>
+      <c r="Y1000" s="1"/>
+      <c r="Z1000" s="1"/>
+      <c r="AA1000" s="1"/>
+      <c r="AB1000" s="1"/>
+      <c r="AC1000" s="1"/>
+      <c r="AD1000" s="1"/>
+      <c r="AE1000" s="1"/>
+      <c r="AF1000" s="1"/>
+      <c r="AG1000" s="1"/>
+      <c r="AH1000" s="1"/>
+      <c r="AI1000" s="1"/>
+      <c r="AJ1000" s="1"/>
+      <c r="AK1000" s="1"/>
+      <c r="AL1000" s="1"/>
+      <c r="AM1000" s="1"/>
+      <c r="AN1000" s="1"/>
+      <c r="AO1000" s="1"/>
+      <c r="AP1000" s="1"/>
+      <c r="AQ1000" s="1"/>
+    </row>
+    <row r="1001" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="1"/>
+      <c r="C1001" s="1"/>
+      <c r="D1001" s="1"/>
+      <c r="E1001" s="1"/>
+      <c r="F1001" s="1"/>
+      <c r="G1001" s="1"/>
+      <c r="H1001" s="1"/>
+      <c r="I1001" s="1"/>
+      <c r="J1001" s="1"/>
+      <c r="K1001" s="1"/>
+      <c r="L1001" s="1"/>
+      <c r="M1001" s="1"/>
+      <c r="N1001" s="1"/>
+      <c r="O1001" s="1"/>
+      <c r="P1001" s="1"/>
+      <c r="Q1001" s="1"/>
+      <c r="R1001" s="1"/>
+      <c r="S1001" s="1"/>
+      <c r="T1001" s="1"/>
+      <c r="U1001" s="1"/>
+      <c r="V1001" s="1"/>
+      <c r="W1001" s="1"/>
+      <c r="X1001" s="1"/>
+      <c r="Y1001" s="1"/>
+      <c r="Z1001" s="1"/>
+      <c r="AA1001" s="1"/>
+      <c r="AB1001" s="1"/>
+      <c r="AC1001" s="1"/>
+      <c r="AD1001" s="1"/>
+      <c r="AE1001" s="1"/>
+      <c r="AF1001" s="1"/>
+      <c r="AG1001" s="1"/>
+      <c r="AH1001" s="1"/>
+      <c r="AI1001" s="1"/>
+      <c r="AJ1001" s="1"/>
+      <c r="AK1001" s="1"/>
+      <c r="AL1001" s="1"/>
+      <c r="AM1001" s="1"/>
+      <c r="AN1001" s="1"/>
+      <c r="AO1001" s="1"/>
+      <c r="AP1001" s="1"/>
+      <c r="AQ1001" s="1"/>
+    </row>
+    <row r="1002" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="1"/>
+      <c r="D1002" s="1"/>
+      <c r="E1002" s="1"/>
+      <c r="F1002" s="1"/>
+      <c r="G1002" s="1"/>
+      <c r="H1002" s="1"/>
+      <c r="I1002" s="1"/>
+      <c r="J1002" s="1"/>
+      <c r="K1002" s="1"/>
+      <c r="L1002" s="1"/>
+      <c r="M1002" s="1"/>
+      <c r="N1002" s="1"/>
+      <c r="O1002" s="1"/>
+      <c r="P1002" s="1"/>
+      <c r="Q1002" s="1"/>
+      <c r="R1002" s="1"/>
+      <c r="S1002" s="1"/>
+      <c r="T1002" s="1"/>
+      <c r="U1002" s="1"/>
+      <c r="V1002" s="1"/>
+      <c r="W1002" s="1"/>
+      <c r="X1002" s="1"/>
+      <c r="Y1002" s="1"/>
+      <c r="Z1002" s="1"/>
+      <c r="AA1002" s="1"/>
+      <c r="AB1002" s="1"/>
+      <c r="AC1002" s="1"/>
+      <c r="AD1002" s="1"/>
+      <c r="AE1002" s="1"/>
+      <c r="AF1002" s="1"/>
+      <c r="AG1002" s="1"/>
+      <c r="AH1002" s="1"/>
+      <c r="AI1002" s="1"/>
+      <c r="AJ1002" s="1"/>
+      <c r="AK1002" s="1"/>
+      <c r="AL1002" s="1"/>
+      <c r="AM1002" s="1"/>
+      <c r="AN1002" s="1"/>
+      <c r="AO1002" s="1"/>
+      <c r="AP1002" s="1"/>
+      <c r="AQ1002" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="383">
-    <mergeCell ref="W55:X56"/>
-    <mergeCell ref="Y55:Z56"/>
-    <mergeCell ref="AA55:AB56"/>
-    <mergeCell ref="AC55:AD56"/>
-    <mergeCell ref="AE55:AI56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:D58"/>
-    <mergeCell ref="E57:F58"/>
-    <mergeCell ref="G57:J58"/>
-    <mergeCell ref="K57:M58"/>
-    <mergeCell ref="N57:P58"/>
-    <mergeCell ref="Q57:R58"/>
-    <mergeCell ref="S57:T58"/>
-    <mergeCell ref="U57:V58"/>
-    <mergeCell ref="W57:X58"/>
-    <mergeCell ref="Y57:Z58"/>
-    <mergeCell ref="AA57:AB58"/>
-    <mergeCell ref="AC57:AD58"/>
-    <mergeCell ref="AE57:AI58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:D56"/>
-    <mergeCell ref="E55:F56"/>
-    <mergeCell ref="G55:J56"/>
-    <mergeCell ref="K55:M56"/>
-    <mergeCell ref="N55:P56"/>
-    <mergeCell ref="Q55:R56"/>
-    <mergeCell ref="S55:T56"/>
-    <mergeCell ref="U55:V56"/>
-    <mergeCell ref="W51:X52"/>
-    <mergeCell ref="Y51:Z52"/>
-    <mergeCell ref="AA51:AB52"/>
-    <mergeCell ref="AC51:AD52"/>
-    <mergeCell ref="AE51:AI52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:D54"/>
-    <mergeCell ref="E53:F54"/>
-    <mergeCell ref="G53:J54"/>
-    <mergeCell ref="K53:M54"/>
-    <mergeCell ref="N53:P54"/>
-    <mergeCell ref="Q53:R54"/>
-    <mergeCell ref="S53:T54"/>
-    <mergeCell ref="U53:V54"/>
-    <mergeCell ref="W53:X54"/>
-    <mergeCell ref="Y53:Z54"/>
-    <mergeCell ref="AA53:AB54"/>
-    <mergeCell ref="AC53:AD54"/>
-    <mergeCell ref="AE53:AI54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:F52"/>
-    <mergeCell ref="G51:J52"/>
-    <mergeCell ref="K51:M52"/>
-    <mergeCell ref="N51:P52"/>
-    <mergeCell ref="Q51:R52"/>
-    <mergeCell ref="S51:T52"/>
-    <mergeCell ref="U51:V52"/>
-    <mergeCell ref="W47:X48"/>
-    <mergeCell ref="Y47:Z48"/>
-    <mergeCell ref="AA47:AB48"/>
-    <mergeCell ref="AC47:AD48"/>
-    <mergeCell ref="AE47:AI48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E49:F50"/>
-    <mergeCell ref="G49:J50"/>
-    <mergeCell ref="K49:M50"/>
-    <mergeCell ref="N49:P50"/>
-    <mergeCell ref="Q49:R50"/>
-    <mergeCell ref="S49:T50"/>
-    <mergeCell ref="U49:V50"/>
-    <mergeCell ref="W49:X50"/>
-    <mergeCell ref="Y49:Z50"/>
-    <mergeCell ref="AA49:AB50"/>
-    <mergeCell ref="AC49:AD50"/>
-    <mergeCell ref="AE49:AI50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:D48"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="G47:J48"/>
-    <mergeCell ref="K47:M48"/>
-    <mergeCell ref="N47:P48"/>
-    <mergeCell ref="Q47:R48"/>
-    <mergeCell ref="S47:T48"/>
-    <mergeCell ref="U47:V48"/>
-    <mergeCell ref="K43:M44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="G45:J46"/>
-    <mergeCell ref="K45:M46"/>
-    <mergeCell ref="AE43:AI44"/>
-    <mergeCell ref="AE45:AI46"/>
-    <mergeCell ref="N43:P44"/>
-    <mergeCell ref="Q43:R44"/>
-    <mergeCell ref="S43:T44"/>
-    <mergeCell ref="U43:V44"/>
-    <mergeCell ref="W43:X44"/>
-    <mergeCell ref="Y43:Z44"/>
-    <mergeCell ref="AE41:AI42"/>
+  <mergeCells count="425">
+    <mergeCell ref="AA39:AB40"/>
+    <mergeCell ref="AC39:AD40"/>
+    <mergeCell ref="AE39:AI40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:D42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="G41:J42"/>
+    <mergeCell ref="K41:M42"/>
     <mergeCell ref="N41:P42"/>
     <mergeCell ref="Q41:R42"/>
     <mergeCell ref="S41:T42"/>
     <mergeCell ref="U41:V42"/>
     <mergeCell ref="W41:X42"/>
     <mergeCell ref="Y41:Z42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:D42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="G41:J42"/>
-    <mergeCell ref="K41:M42"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:J22"/>
-    <mergeCell ref="K21:M22"/>
+    <mergeCell ref="AA41:AB42"/>
+    <mergeCell ref="AC41:AD42"/>
+    <mergeCell ref="AE41:AI42"/>
+    <mergeCell ref="AE23:AI24"/>
+    <mergeCell ref="N23:P24"/>
+    <mergeCell ref="Q23:R24"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="U23:V24"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="Y23:Z24"/>
+    <mergeCell ref="AA27:AB28"/>
+    <mergeCell ref="AC27:AD28"/>
+    <mergeCell ref="N27:P28"/>
+    <mergeCell ref="Q27:R28"/>
+    <mergeCell ref="S27:T28"/>
+    <mergeCell ref="U27:V28"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Z28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:J24"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="AA25:AB26"/>
+    <mergeCell ref="AC25:AD26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:J26"/>
+    <mergeCell ref="K25:M26"/>
+    <mergeCell ref="AA23:AB24"/>
+    <mergeCell ref="AC23:AD24"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="G31:J32"/>
+    <mergeCell ref="AE25:AI26"/>
+    <mergeCell ref="AE27:AI28"/>
+    <mergeCell ref="N25:P26"/>
+    <mergeCell ref="Q25:R26"/>
+    <mergeCell ref="S25:T26"/>
+    <mergeCell ref="U25:V26"/>
+    <mergeCell ref="W25:X26"/>
+    <mergeCell ref="Y25:Z26"/>
+    <mergeCell ref="G27:J28"/>
+    <mergeCell ref="K27:M28"/>
+    <mergeCell ref="AA33:AB34"/>
+    <mergeCell ref="AC33:AD34"/>
+    <mergeCell ref="N33:P34"/>
+    <mergeCell ref="Q33:R34"/>
+    <mergeCell ref="S33:T34"/>
+    <mergeCell ref="U33:V34"/>
+    <mergeCell ref="W33:X34"/>
+    <mergeCell ref="Y33:Z34"/>
+    <mergeCell ref="AA29:AB30"/>
+    <mergeCell ref="AC29:AD30"/>
+    <mergeCell ref="AA31:AB32"/>
+    <mergeCell ref="AC31:AD32"/>
+    <mergeCell ref="AE31:AI32"/>
+    <mergeCell ref="AE33:AI34"/>
+    <mergeCell ref="N31:P32"/>
+    <mergeCell ref="Q31:R32"/>
+    <mergeCell ref="S31:T32"/>
+    <mergeCell ref="U31:V32"/>
+    <mergeCell ref="W31:X32"/>
+    <mergeCell ref="Y31:Z32"/>
+    <mergeCell ref="AE29:AI30"/>
+    <mergeCell ref="N29:P30"/>
+    <mergeCell ref="Q29:R30"/>
+    <mergeCell ref="S29:T30"/>
+    <mergeCell ref="U29:V30"/>
+    <mergeCell ref="W29:X30"/>
+    <mergeCell ref="Y29:Z30"/>
+    <mergeCell ref="AE35:AI36"/>
+    <mergeCell ref="N35:P36"/>
+    <mergeCell ref="Q35:R36"/>
+    <mergeCell ref="S35:T36"/>
+    <mergeCell ref="U35:V36"/>
+    <mergeCell ref="W35:X36"/>
+    <mergeCell ref="Y35:Z36"/>
     <mergeCell ref="AA45:AB46"/>
     <mergeCell ref="AC45:AD46"/>
     <mergeCell ref="N45:P46"/>
@@ -45945,92 +46249,72 @@
     <mergeCell ref="U45:V46"/>
     <mergeCell ref="W45:X46"/>
     <mergeCell ref="Y45:Z46"/>
-    <mergeCell ref="AA41:AB42"/>
-    <mergeCell ref="AC41:AD42"/>
+    <mergeCell ref="N37:P38"/>
+    <mergeCell ref="Q37:R38"/>
+    <mergeCell ref="S37:T38"/>
+    <mergeCell ref="U37:V38"/>
+    <mergeCell ref="W37:X38"/>
+    <mergeCell ref="Y37:Z38"/>
+    <mergeCell ref="AA37:AB38"/>
+    <mergeCell ref="AC37:AD38"/>
+    <mergeCell ref="AE37:AI38"/>
     <mergeCell ref="AA43:AB44"/>
     <mergeCell ref="AC43:AD44"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="B43:D44"/>
     <mergeCell ref="E43:F44"/>
     <mergeCell ref="G43:J44"/>
-    <mergeCell ref="AE19:AI20"/>
-    <mergeCell ref="AE21:AI22"/>
-    <mergeCell ref="N19:P20"/>
-    <mergeCell ref="Q19:R20"/>
-    <mergeCell ref="S19:T20"/>
-    <mergeCell ref="U19:V20"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="Y19:Z20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:J18"/>
-    <mergeCell ref="K17:M18"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="AC19:AD20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:J20"/>
-    <mergeCell ref="K19:M20"/>
-    <mergeCell ref="AA17:AB18"/>
-    <mergeCell ref="AC17:AD18"/>
-    <mergeCell ref="AE17:AI18"/>
-    <mergeCell ref="N17:P18"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="S17:T18"/>
-    <mergeCell ref="U17:V18"/>
-    <mergeCell ref="W17:X18"/>
-    <mergeCell ref="Y17:Z18"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="AC21:AD22"/>
-    <mergeCell ref="N21:P22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="W21:X22"/>
-    <mergeCell ref="Y21:Z22"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:D14"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="G13:J14"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:J16"/>
-    <mergeCell ref="K15:M16"/>
-    <mergeCell ref="AE13:AI14"/>
-    <mergeCell ref="AE15:AI16"/>
-    <mergeCell ref="N13:P14"/>
-    <mergeCell ref="Q13:R14"/>
-    <mergeCell ref="S13:T14"/>
-    <mergeCell ref="U13:V14"/>
-    <mergeCell ref="W13:X14"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AE11:AI12"/>
-    <mergeCell ref="N11:P12"/>
-    <mergeCell ref="Q11:R12"/>
-    <mergeCell ref="S11:T12"/>
-    <mergeCell ref="U11:V12"/>
-    <mergeCell ref="W11:X12"/>
-    <mergeCell ref="Y11:Z12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="G11:J12"/>
-    <mergeCell ref="K11:M12"/>
-    <mergeCell ref="AC15:AD16"/>
-    <mergeCell ref="N15:P16"/>
-    <mergeCell ref="Q15:R16"/>
-    <mergeCell ref="S15:T16"/>
-    <mergeCell ref="U15:V16"/>
-    <mergeCell ref="W15:X16"/>
-    <mergeCell ref="Y15:Z16"/>
-    <mergeCell ref="AA11:AB12"/>
-    <mergeCell ref="AC11:AD12"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="AC13:AD14"/>
+    <mergeCell ref="K43:M44"/>
+    <mergeCell ref="AA35:AB36"/>
+    <mergeCell ref="AC35:AD36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="G37:J38"/>
+    <mergeCell ref="K37:M38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="G39:J40"/>
+    <mergeCell ref="K39:M40"/>
+    <mergeCell ref="N39:P40"/>
+    <mergeCell ref="Q39:R40"/>
+    <mergeCell ref="S39:T40"/>
+    <mergeCell ref="U39:V40"/>
+    <mergeCell ref="W39:X40"/>
+    <mergeCell ref="S43:T44"/>
+    <mergeCell ref="U43:V44"/>
+    <mergeCell ref="W43:X44"/>
+    <mergeCell ref="Y43:Z44"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="G35:J36"/>
+    <mergeCell ref="K35:M36"/>
+    <mergeCell ref="Y39:Z40"/>
+    <mergeCell ref="AA9:AB10"/>
+    <mergeCell ref="AC9:AD10"/>
+    <mergeCell ref="N9:P10"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="U9:V10"/>
+    <mergeCell ref="W9:X10"/>
+    <mergeCell ref="Y9:Z10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:J10"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="AE5:AI6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="K5:M6"/>
+    <mergeCell ref="N5:P6"/>
+    <mergeCell ref="Q5:R6"/>
     <mergeCell ref="AE7:AI8"/>
     <mergeCell ref="AE9:AI10"/>
     <mergeCell ref="N7:P8"/>
@@ -46055,93 +46339,117 @@
     <mergeCell ref="K7:M8"/>
     <mergeCell ref="S5:AB5"/>
     <mergeCell ref="AC5:AD6"/>
-    <mergeCell ref="AE5:AI6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="K5:M6"/>
-    <mergeCell ref="N5:P6"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="G39:J40"/>
-    <mergeCell ref="K39:M40"/>
-    <mergeCell ref="AA9:AB10"/>
-    <mergeCell ref="AC9:AD10"/>
-    <mergeCell ref="N9:P10"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="U9:V10"/>
-    <mergeCell ref="W9:X10"/>
-    <mergeCell ref="Y9:Z10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:J10"/>
-    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="G11:J12"/>
+    <mergeCell ref="K11:M12"/>
+    <mergeCell ref="AC15:AD16"/>
+    <mergeCell ref="N15:P16"/>
+    <mergeCell ref="Q15:R16"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="U15:V16"/>
+    <mergeCell ref="W15:X16"/>
+    <mergeCell ref="Y15:Z16"/>
+    <mergeCell ref="AA11:AB12"/>
+    <mergeCell ref="AC11:AD12"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="AC13:AD14"/>
     <mergeCell ref="AA15:AB16"/>
-    <mergeCell ref="AE37:AI38"/>
-    <mergeCell ref="AE39:AI40"/>
-    <mergeCell ref="N37:P38"/>
-    <mergeCell ref="Q37:R38"/>
-    <mergeCell ref="S37:T38"/>
-    <mergeCell ref="U37:V38"/>
-    <mergeCell ref="W37:X38"/>
-    <mergeCell ref="Y37:Z38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="G35:J36"/>
-    <mergeCell ref="K35:M36"/>
-    <mergeCell ref="AA37:AB38"/>
-    <mergeCell ref="AC37:AD38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="G37:J38"/>
-    <mergeCell ref="K37:M38"/>
-    <mergeCell ref="AA35:AB36"/>
-    <mergeCell ref="AC35:AD36"/>
-    <mergeCell ref="AE35:AI36"/>
-    <mergeCell ref="N35:P36"/>
-    <mergeCell ref="Q35:R36"/>
-    <mergeCell ref="S35:T36"/>
-    <mergeCell ref="U35:V36"/>
-    <mergeCell ref="W35:X36"/>
-    <mergeCell ref="Y35:Z36"/>
-    <mergeCell ref="AA39:AB40"/>
-    <mergeCell ref="AC39:AD40"/>
-    <mergeCell ref="N39:P40"/>
-    <mergeCell ref="Q39:R40"/>
-    <mergeCell ref="S39:T40"/>
-    <mergeCell ref="U39:V40"/>
-    <mergeCell ref="W39:X40"/>
-    <mergeCell ref="Y39:Z40"/>
+    <mergeCell ref="AE13:AI14"/>
+    <mergeCell ref="AE15:AI16"/>
+    <mergeCell ref="N13:P14"/>
+    <mergeCell ref="Q13:R14"/>
+    <mergeCell ref="S13:T14"/>
+    <mergeCell ref="U13:V14"/>
+    <mergeCell ref="W13:X14"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AE11:AI12"/>
+    <mergeCell ref="N11:P12"/>
+    <mergeCell ref="Q11:R12"/>
+    <mergeCell ref="S11:T12"/>
+    <mergeCell ref="U11:V12"/>
+    <mergeCell ref="W11:X12"/>
+    <mergeCell ref="Y11:Z12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G13:J14"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:J16"/>
+    <mergeCell ref="K15:M16"/>
+    <mergeCell ref="AE17:AI18"/>
+    <mergeCell ref="N17:P18"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="U17:V18"/>
+    <mergeCell ref="W17:X18"/>
+    <mergeCell ref="Y17:Z18"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="AC21:AD22"/>
+    <mergeCell ref="N21:P22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:J18"/>
+    <mergeCell ref="K17:M18"/>
+    <mergeCell ref="AA19:AB20"/>
+    <mergeCell ref="AC19:AD20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:J20"/>
+    <mergeCell ref="K19:M20"/>
+    <mergeCell ref="AA17:AB18"/>
+    <mergeCell ref="AC17:AD18"/>
+    <mergeCell ref="AC47:AD48"/>
+    <mergeCell ref="AA49:AB50"/>
+    <mergeCell ref="AC49:AD50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E49:F50"/>
+    <mergeCell ref="G49:J50"/>
+    <mergeCell ref="AE19:AI20"/>
+    <mergeCell ref="AE21:AI22"/>
+    <mergeCell ref="N19:P20"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="U19:V20"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="G45:J46"/>
+    <mergeCell ref="K45:M46"/>
+    <mergeCell ref="AE43:AI44"/>
+    <mergeCell ref="AE45:AI46"/>
+    <mergeCell ref="N43:P44"/>
+    <mergeCell ref="Q43:R44"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:D48"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="G47:J48"/>
+    <mergeCell ref="K47:M48"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:J22"/>
+    <mergeCell ref="K21:M22"/>
     <mergeCell ref="K31:M32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:D34"/>
     <mergeCell ref="E33:F34"/>
     <mergeCell ref="G33:J34"/>
     <mergeCell ref="K33:M34"/>
-    <mergeCell ref="AE31:AI32"/>
-    <mergeCell ref="AE33:AI34"/>
-    <mergeCell ref="N31:P32"/>
-    <mergeCell ref="Q31:R32"/>
-    <mergeCell ref="S31:T32"/>
-    <mergeCell ref="U31:V32"/>
-    <mergeCell ref="W31:X32"/>
-    <mergeCell ref="Y31:Z32"/>
-    <mergeCell ref="AE29:AI30"/>
-    <mergeCell ref="N29:P30"/>
-    <mergeCell ref="Q29:R30"/>
-    <mergeCell ref="S29:T30"/>
-    <mergeCell ref="U29:V30"/>
-    <mergeCell ref="W29:X30"/>
-    <mergeCell ref="Y29:Z30"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:D30"/>
     <mergeCell ref="E29:F30"/>
@@ -46150,61 +46458,120 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:D28"/>
     <mergeCell ref="E27:F28"/>
-    <mergeCell ref="G27:J28"/>
-    <mergeCell ref="K27:M28"/>
-    <mergeCell ref="AA33:AB34"/>
-    <mergeCell ref="AC33:AD34"/>
-    <mergeCell ref="N33:P34"/>
-    <mergeCell ref="Q33:R34"/>
-    <mergeCell ref="S33:T34"/>
-    <mergeCell ref="U33:V34"/>
-    <mergeCell ref="W33:X34"/>
-    <mergeCell ref="Y33:Z34"/>
-    <mergeCell ref="AA29:AB30"/>
-    <mergeCell ref="AC29:AD30"/>
-    <mergeCell ref="AA31:AB32"/>
-    <mergeCell ref="AC31:AD32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="G31:J32"/>
-    <mergeCell ref="AE25:AI26"/>
-    <mergeCell ref="AE27:AI28"/>
-    <mergeCell ref="N25:P26"/>
-    <mergeCell ref="Q25:R26"/>
-    <mergeCell ref="S25:T26"/>
-    <mergeCell ref="U25:V26"/>
-    <mergeCell ref="W25:X26"/>
-    <mergeCell ref="Y25:Z26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:J24"/>
-    <mergeCell ref="K23:M24"/>
-    <mergeCell ref="AA25:AB26"/>
-    <mergeCell ref="AC25:AD26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:J26"/>
-    <mergeCell ref="K25:M26"/>
-    <mergeCell ref="AA23:AB24"/>
-    <mergeCell ref="AC23:AD24"/>
-    <mergeCell ref="AE23:AI24"/>
-    <mergeCell ref="N23:P24"/>
-    <mergeCell ref="Q23:R24"/>
-    <mergeCell ref="S23:T24"/>
-    <mergeCell ref="U23:V24"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="Y23:Z24"/>
-    <mergeCell ref="AA27:AB28"/>
-    <mergeCell ref="AC27:AD28"/>
-    <mergeCell ref="N27:P28"/>
-    <mergeCell ref="Q27:R28"/>
-    <mergeCell ref="S27:T28"/>
-    <mergeCell ref="U27:V28"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Z28"/>
+    <mergeCell ref="AE49:AI50"/>
+    <mergeCell ref="AE51:AI52"/>
+    <mergeCell ref="N49:P50"/>
+    <mergeCell ref="Q49:R50"/>
+    <mergeCell ref="S49:T50"/>
+    <mergeCell ref="U49:V50"/>
+    <mergeCell ref="W49:X50"/>
+    <mergeCell ref="Y49:Z50"/>
+    <mergeCell ref="AE47:AI48"/>
+    <mergeCell ref="N47:P48"/>
+    <mergeCell ref="Q47:R48"/>
+    <mergeCell ref="S47:T48"/>
+    <mergeCell ref="U47:V48"/>
+    <mergeCell ref="W47:X48"/>
+    <mergeCell ref="Y47:Z48"/>
+    <mergeCell ref="AA51:AB52"/>
+    <mergeCell ref="AC51:AD52"/>
+    <mergeCell ref="N51:P52"/>
+    <mergeCell ref="Q51:R52"/>
+    <mergeCell ref="S51:T52"/>
+    <mergeCell ref="U51:V52"/>
+    <mergeCell ref="W51:X52"/>
+    <mergeCell ref="Y51:Z52"/>
+    <mergeCell ref="AA47:AB48"/>
+    <mergeCell ref="N53:P54"/>
+    <mergeCell ref="Q53:R54"/>
+    <mergeCell ref="S53:T54"/>
+    <mergeCell ref="U53:V54"/>
+    <mergeCell ref="K49:M50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:F52"/>
+    <mergeCell ref="G51:J52"/>
+    <mergeCell ref="K51:M52"/>
+    <mergeCell ref="W53:X54"/>
+    <mergeCell ref="Y53:Z54"/>
+    <mergeCell ref="AA53:AB54"/>
+    <mergeCell ref="AC53:AD54"/>
+    <mergeCell ref="AE53:AI54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:D56"/>
+    <mergeCell ref="E55:F56"/>
+    <mergeCell ref="G55:J56"/>
+    <mergeCell ref="K55:M56"/>
+    <mergeCell ref="N55:P56"/>
+    <mergeCell ref="Q55:R56"/>
+    <mergeCell ref="S55:T56"/>
+    <mergeCell ref="U55:V56"/>
+    <mergeCell ref="W55:X56"/>
+    <mergeCell ref="Y55:Z56"/>
+    <mergeCell ref="AA55:AB56"/>
+    <mergeCell ref="AC55:AD56"/>
+    <mergeCell ref="AE55:AI56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:D54"/>
+    <mergeCell ref="E53:F54"/>
+    <mergeCell ref="G53:J54"/>
+    <mergeCell ref="K53:M54"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="E57:F58"/>
+    <mergeCell ref="G57:J58"/>
+    <mergeCell ref="K57:M58"/>
+    <mergeCell ref="N57:P58"/>
+    <mergeCell ref="Q57:R58"/>
+    <mergeCell ref="S57:T58"/>
+    <mergeCell ref="U57:V58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="E59:F60"/>
+    <mergeCell ref="G59:J60"/>
+    <mergeCell ref="K59:M60"/>
+    <mergeCell ref="N59:P60"/>
+    <mergeCell ref="Q59:R60"/>
+    <mergeCell ref="S59:T60"/>
+    <mergeCell ref="U59:V60"/>
+    <mergeCell ref="N61:P62"/>
+    <mergeCell ref="Q61:R62"/>
+    <mergeCell ref="S61:T62"/>
+    <mergeCell ref="U61:V62"/>
+    <mergeCell ref="W57:X58"/>
+    <mergeCell ref="Y57:Z58"/>
+    <mergeCell ref="AA57:AB58"/>
+    <mergeCell ref="AC57:AD58"/>
+    <mergeCell ref="AE57:AI58"/>
+    <mergeCell ref="W59:X60"/>
+    <mergeCell ref="Y59:Z60"/>
+    <mergeCell ref="AA59:AB60"/>
+    <mergeCell ref="AC59:AD60"/>
+    <mergeCell ref="AE59:AI60"/>
+    <mergeCell ref="W61:X62"/>
+    <mergeCell ref="Y61:Z62"/>
+    <mergeCell ref="AA61:AB62"/>
+    <mergeCell ref="AC61:AD62"/>
+    <mergeCell ref="AE61:AI62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:F64"/>
+    <mergeCell ref="G63:J64"/>
+    <mergeCell ref="K63:M64"/>
+    <mergeCell ref="N63:P64"/>
+    <mergeCell ref="Q63:R64"/>
+    <mergeCell ref="S63:T64"/>
+    <mergeCell ref="U63:V64"/>
+    <mergeCell ref="W63:X64"/>
+    <mergeCell ref="Y63:Z64"/>
+    <mergeCell ref="AA63:AB64"/>
+    <mergeCell ref="AC63:AD64"/>
+    <mergeCell ref="AE63:AI64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:F62"/>
+    <mergeCell ref="G61:J62"/>
+    <mergeCell ref="K61:M62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/System design/Group2_Report_HMS_Project_Tracking.xlsx
+++ b/System design/Group2_Report_HMS_Project_Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CaoVanLam\CHUYEN NGANH\CN7\SDN\Project\sdn302-02\System design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Documents\DOCUMENTS_IMPORTANT\DANGKHOA\code\sdn_project\team_project\hotel_app_v2\sdn302-02\System design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94ADE28-0D54-442A-9B3A-F317C634E61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76941171-E1FA-4685-A6E2-1B8606E56879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project General Info" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="103">
   <si>
     <t>Team</t>
   </si>
@@ -243,9 +243,6 @@
     <t>Removes a staff member from the system.</t>
   </si>
   <si>
-    <t>Manages billing information or displays billing-related features.</t>
-  </si>
-  <si>
     <t>Allows existing users to log into the system</t>
   </si>
   <si>
@@ -259,9 +256,6 @@
   </si>
   <si>
     <t>Updates the information of a customer in the system</t>
-  </si>
-  <si>
-    <t>Allows users to update their own profile details.</t>
   </si>
   <si>
     <t>Enables customers to request a service from the hotel.</t>
@@ -322,6 +316,24 @@
   </si>
   <si>
     <t>Remove service from service list</t>
+  </si>
+  <si>
+    <t>User_ViewProfile</t>
+  </si>
+  <si>
+    <t>User_ChangePassword</t>
+  </si>
+  <si>
+    <t>Allow user to view own profile details.</t>
+  </si>
+  <si>
+    <t>Allow user to change new password</t>
+  </si>
+  <si>
+    <t>Manages bill information or displays bill-related features.</t>
+  </si>
+  <si>
+    <t>Allow user to update own profile details.</t>
   </si>
 </sst>
 </file>
@@ -589,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -603,66 +615,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -679,27 +651,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -912,17 +906,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ1002"/>
+  <dimension ref="A1:AQ1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49:J50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37:P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="12" width="8.625" customWidth="1"/>
+    <col min="7" max="9" width="8.625" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="12" width="8.625" customWidth="1"/>
     <col min="13" max="13" width="31.375" customWidth="1"/>
     <col min="14" max="14" width="20.75" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
@@ -934,34 +930,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23">
+      <c r="B1" s="30"/>
+      <c r="C1" s="31">
         <v>1</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="22"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="30"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>31</v>
@@ -993,34 +989,34 @@
       <c r="AQ1" s="1"/>
     </row>
     <row r="2" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="22"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>32</v>
@@ -1066,7 +1062,6 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1111,7 +1106,6 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1142,108 +1136,108 @@
       <c r="AQ4" s="1"/>
     </row>
     <row r="5" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="26" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="26" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="26" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="26" t="s">
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="26" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="27" t="s">
+      <c r="R5" s="19"/>
+      <c r="S5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="26" t="s">
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="26" t="s">
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="5"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="19"/>
     </row>
     <row r="6" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="27" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="T6" s="29"/>
-      <c r="U6" s="27" t="s">
+      <c r="T6" s="27"/>
+      <c r="U6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="29"/>
-      <c r="W6" s="27" t="s">
+      <c r="V6" s="27"/>
+      <c r="W6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="27" t="s">
+      <c r="X6" s="27"/>
+      <c r="Y6" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="30" t="s">
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="7"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="22"/>
     </row>
     <row r="7" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
@@ -1252,88 +1246,88 @@
       <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="12" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="19"/>
       <c r="N7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="5"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R7" s="5"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="5"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="19"/>
       <c r="AA7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="5"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="19"/>
     </row>
     <row r="8" spans="1:43" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="7"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="22"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="7"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="22"/>
     </row>
     <row r="9" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
@@ -1342,88 +1336,88 @@
       <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="12" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="5"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="5"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="19"/>
       <c r="Q9" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R9" s="5"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="5"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="19"/>
       <c r="AA9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="5"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="19"/>
     </row>
     <row r="10" spans="1:43" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="7"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="22"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="7"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="22"/>
     </row>
     <row r="11" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
@@ -1432,88 +1426,88 @@
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="12" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="5"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="19"/>
       <c r="N11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="5"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="19"/>
       <c r="Q11" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R11" s="5"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="5"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="19"/>
       <c r="AA11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="5"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="19"/>
     </row>
     <row r="12" spans="1:43" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="7"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="22"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="7"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="22"/>
     </row>
     <row r="13" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
@@ -1522,88 +1516,88 @@
       <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="12" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="5"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="5"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="19"/>
       <c r="Q13" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R13" s="5"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="5"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="19"/>
       <c r="AA13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="5"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="19"/>
     </row>
     <row r="14" spans="1:43" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="7"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="22"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="7"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="22"/>
     </row>
     <row r="15" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
@@ -1612,178 +1606,178 @@
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="12" t="s">
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="5"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="19"/>
       <c r="N15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="5"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="19"/>
       <c r="Q15" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R15" s="5"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="5"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="19"/>
       <c r="AA15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="5"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="19"/>
     </row>
     <row r="16" spans="1:43" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="7"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="22"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="7"/>
-    </row>
-    <row r="17" spans="1:35" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S16" s="20"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="22"/>
+    </row>
+    <row r="17" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>6</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="14" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="14" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="19" t="s">
-        <v>72</v>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="36" t="s">
+        <v>101</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="14" t="s">
+      <c r="L17" s="18"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="14" t="s">
+      <c r="O17" s="18"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R17" s="5"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="14" t="s">
+      <c r="S17" s="35"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="5"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="19"/>
     </row>
     <row r="18" spans="1:35" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="9"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="6"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="7"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="22"/>
     </row>
     <row r="19" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
@@ -1792,88 +1786,88 @@
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="4" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4" t="s">
-        <v>28</v>
+      <c r="F19" s="19"/>
+      <c r="G19" s="8" t="s">
+        <v>97</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="19" t="s">
-        <v>73</v>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="36" t="s">
+        <v>99</v>
       </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="4" t="s">
-        <v>9</v>
+      <c r="L19" s="18"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="8" t="s">
+        <v>8</v>
       </c>
-      <c r="O19" s="14"/>
-      <c r="P19" s="15"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="19"/>
       <c r="Q19" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R19" s="5"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="4" t="s">
+      <c r="S19" s="35"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="8"/>
-      <c r="AI19" s="5"/>
-    </row>
-    <row r="20" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="18"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="19"/>
+    </row>
+    <row r="20" spans="1:35" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="22"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="7"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="22"/>
     </row>
     <row r="21" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
@@ -1882,1018 +1876,1018 @@
       <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="4" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4" t="s">
-        <v>30</v>
+      <c r="F21" s="19"/>
+      <c r="G21" s="8" t="s">
+        <v>98</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="12" t="s">
-        <v>74</v>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="36" t="s">
+        <v>100</v>
       </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="4" t="s">
-        <v>9</v>
+      <c r="L21" s="18"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="8" t="s">
+        <v>8</v>
       </c>
-      <c r="O21" s="14"/>
-      <c r="P21" s="15"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="19"/>
       <c r="Q21" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R21" s="5"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="4" t="s">
+      <c r="S21" s="35"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="5"/>
-    </row>
-    <row r="22" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="18"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="19"/>
+    </row>
+    <row r="22" spans="1:35" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="22"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="7"/>
-    </row>
-    <row r="23" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S22" s="21"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="22"/>
+    </row>
+    <row r="23" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="4" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="12" t="s">
-        <v>75</v>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="36" t="s">
+        <v>72</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="5"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="14"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="31" t="s">
+      <c r="O23" s="8"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R23" s="5"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="5"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="19"/>
       <c r="AA23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="5"/>
-    </row>
-    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="18"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="19"/>
+    </row>
+    <row r="24" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="7"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="7"/>
-    </row>
-    <row r="25" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S24" s="20"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="21"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="22"/>
+    </row>
+    <row r="25" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="4" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="12" t="s">
-        <v>76</v>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="11" t="s">
+        <v>73</v>
       </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="5"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="19"/>
       <c r="N25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="14"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="31" t="s">
+      <c r="O25" s="8"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R25" s="5"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="5"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="19"/>
       <c r="AA25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="5"/>
-    </row>
-    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="18"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="19"/>
+    </row>
+    <row r="26" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="7"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="7"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="21"/>
+      <c r="AG26" s="21"/>
+      <c r="AH26" s="21"/>
+      <c r="AI26" s="22"/>
     </row>
     <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="5"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="12" t="s">
-        <v>77</v>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="11" t="s">
+        <v>74</v>
       </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="5"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="19"/>
       <c r="N27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="31" t="s">
+      <c r="O27" s="8"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R27" s="5"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="5"/>
+      <c r="T27" s="19"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="5"/>
+      <c r="V27" s="19"/>
       <c r="W27" s="4"/>
-      <c r="X27" s="5"/>
+      <c r="X27" s="19"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="5"/>
+      <c r="Z27" s="19"/>
       <c r="AA27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB27" s="5"/>
+      <c r="AB27" s="19"/>
       <c r="AC27" s="4"/>
-      <c r="AD27" s="5"/>
+      <c r="AD27" s="19"/>
       <c r="AE27" s="4"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="8"/>
-      <c r="AI27" s="5"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="19"/>
     </row>
     <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="7"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="7"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="21"/>
+      <c r="AI28" s="22"/>
     </row>
     <row r="29" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="5"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="12" t="s">
-        <v>78</v>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="11" t="s">
+        <v>75</v>
       </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="5"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="19"/>
       <c r="N29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O29" s="14"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="31" t="s">
+      <c r="O29" s="8"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R29" s="5"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="5"/>
+      <c r="T29" s="19"/>
       <c r="U29" s="4"/>
-      <c r="V29" s="5"/>
+      <c r="V29" s="19"/>
       <c r="W29" s="4"/>
-      <c r="X29" s="5"/>
+      <c r="X29" s="19"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="5"/>
+      <c r="Z29" s="19"/>
       <c r="AA29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB29" s="5"/>
+      <c r="AB29" s="19"/>
       <c r="AC29" s="4"/>
-      <c r="AD29" s="5"/>
+      <c r="AD29" s="19"/>
       <c r="AE29" s="4"/>
-      <c r="AF29" s="8"/>
-      <c r="AG29" s="8"/>
-      <c r="AH29" s="8"/>
-      <c r="AI29" s="5"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="18"/>
+      <c r="AI29" s="19"/>
     </row>
     <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="18"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="7"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="7"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="21"/>
+      <c r="AG30" s="21"/>
+      <c r="AH30" s="21"/>
+      <c r="AI30" s="22"/>
     </row>
     <row r="31" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="19"/>
       <c r="G31" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="12" t="s">
-        <v>79</v>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="11" t="s">
+        <v>76</v>
       </c>
-      <c r="L31" s="8"/>
-      <c r="M31" s="5"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="19"/>
       <c r="N31" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="O31" s="8"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="31" t="s">
+      <c r="Q31" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="5"/>
+      <c r="T31" s="19"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="5"/>
+      <c r="V31" s="19"/>
       <c r="W31" s="4"/>
-      <c r="X31" s="5"/>
+      <c r="X31" s="19"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="5"/>
+      <c r="Z31" s="19"/>
       <c r="AA31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB31" s="5"/>
+      <c r="AB31" s="19"/>
       <c r="AC31" s="4"/>
-      <c r="AD31" s="5"/>
+      <c r="AD31" s="19"/>
       <c r="AE31" s="4"/>
-      <c r="AF31" s="8"/>
-      <c r="AG31" s="8"/>
-      <c r="AH31" s="8"/>
-      <c r="AI31" s="5"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="18"/>
+      <c r="AI31" s="19"/>
     </row>
     <row r="32" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="7"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="22"/>
       <c r="N32" s="6"/>
       <c r="O32" s="9"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="7"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="7"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="21"/>
+      <c r="AG32" s="21"/>
+      <c r="AH32" s="21"/>
+      <c r="AI32" s="22"/>
     </row>
     <row r="33" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="5"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="12" t="s">
-        <v>80</v>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="11" t="s">
+        <v>102</v>
       </c>
-      <c r="L33" s="8"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="31" t="s">
-        <v>32</v>
+      <c r="L33" s="18"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="O33" s="8"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="31" t="s">
+      <c r="Q33" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R33" s="5"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="5"/>
+      <c r="T33" s="19"/>
       <c r="U33" s="4"/>
-      <c r="V33" s="5"/>
+      <c r="V33" s="19"/>
       <c r="W33" s="4"/>
-      <c r="X33" s="5"/>
+      <c r="X33" s="19"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="5"/>
+      <c r="Z33" s="19"/>
       <c r="AA33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB33" s="5"/>
+      <c r="AB33" s="19"/>
       <c r="AC33" s="4"/>
-      <c r="AD33" s="5"/>
+      <c r="AD33" s="19"/>
       <c r="AE33" s="4"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="8"/>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="5"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="18"/>
+      <c r="AI33" s="19"/>
     </row>
     <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="7"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="22"/>
       <c r="N34" s="6"/>
       <c r="O34" s="9"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="7"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="21"/>
+      <c r="AH34" s="21"/>
+      <c r="AI34" s="22"/>
     </row>
     <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="15"/>
+      <c r="F35" s="19"/>
       <c r="G35" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="12" t="s">
-        <v>81</v>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="11" t="s">
+        <v>77</v>
       </c>
-      <c r="L35" s="32"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="31" t="s">
+      <c r="L35" s="18"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O35" s="38"/>
-      <c r="P35" s="39"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="19"/>
       <c r="Q35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R35" s="15"/>
+      <c r="R35" s="5"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="15"/>
+      <c r="T35" s="19"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="15"/>
+      <c r="V35" s="19"/>
       <c r="W35" s="4"/>
-      <c r="X35" s="15"/>
+      <c r="X35" s="19"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="15"/>
+      <c r="Z35" s="19"/>
       <c r="AA35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB35" s="15"/>
+      <c r="AB35" s="19"/>
       <c r="AC35" s="4"/>
-      <c r="AD35" s="15"/>
+      <c r="AD35" s="19"/>
       <c r="AE35" s="4"/>
-      <c r="AF35" s="14"/>
-      <c r="AG35" s="14"/>
-      <c r="AH35" s="14"/>
-      <c r="AI35" s="15"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="19"/>
     </row>
     <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="18"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="18"/>
-      <c r="AC36" s="16"/>
-      <c r="AD36" s="18"/>
-      <c r="AE36" s="16"/>
-      <c r="AF36" s="17"/>
-      <c r="AG36" s="17"/>
-      <c r="AH36" s="17"/>
-      <c r="AI36" s="18"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="21"/>
+      <c r="AG36" s="21"/>
+      <c r="AH36" s="21"/>
+      <c r="AI36" s="22"/>
     </row>
     <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="15"/>
+      <c r="F37" s="19"/>
       <c r="G37" s="4" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="12" t="s">
-        <v>94</v>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="11" t="s">
+        <v>78</v>
       </c>
-      <c r="L37" s="32"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="31" t="s">
+      <c r="L37" s="18"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O37" s="38"/>
-      <c r="P37" s="39"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="19"/>
       <c r="Q37" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R37" s="15"/>
+      <c r="R37" s="5"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="15"/>
+      <c r="T37" s="19"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="15"/>
+      <c r="V37" s="19"/>
       <c r="W37" s="4"/>
-      <c r="X37" s="15"/>
+      <c r="X37" s="19"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="15"/>
+      <c r="Z37" s="19"/>
       <c r="AA37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB37" s="15"/>
+      <c r="AB37" s="19"/>
       <c r="AC37" s="4"/>
-      <c r="AD37" s="15"/>
+      <c r="AD37" s="19"/>
       <c r="AE37" s="4"/>
-      <c r="AF37" s="14"/>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="14"/>
-      <c r="AI37" s="15"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="18"/>
+      <c r="AI37" s="19"/>
     </row>
     <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="18"/>
-      <c r="AE38" s="16"/>
-      <c r="AF38" s="17"/>
-      <c r="AG38" s="17"/>
-      <c r="AH38" s="17"/>
-      <c r="AI38" s="18"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="21"/>
+      <c r="AG38" s="21"/>
+      <c r="AH38" s="21"/>
+      <c r="AI38" s="22"/>
     </row>
     <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="15"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="4" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="12" t="s">
-        <v>96</v>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="11" t="s">
+        <v>79</v>
       </c>
-      <c r="L39" s="32"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="31" t="s">
+      <c r="L39" s="12"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O39" s="38"/>
-      <c r="P39" s="39"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="19"/>
       <c r="Q39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R39" s="15"/>
+      <c r="R39" s="5"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="15"/>
+      <c r="T39" s="5"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="15"/>
+      <c r="V39" s="5"/>
       <c r="W39" s="4"/>
-      <c r="X39" s="15"/>
+      <c r="X39" s="5"/>
       <c r="Y39" s="4"/>
-      <c r="Z39" s="15"/>
+      <c r="Z39" s="5"/>
       <c r="AA39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB39" s="15"/>
+      <c r="AB39" s="5"/>
       <c r="AC39" s="4"/>
-      <c r="AD39" s="15"/>
+      <c r="AD39" s="5"/>
       <c r="AE39" s="4"/>
-      <c r="AF39" s="14"/>
-      <c r="AG39" s="14"/>
-      <c r="AH39" s="14"/>
-      <c r="AI39" s="15"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="5"/>
     </row>
     <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="37"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="18"/>
-      <c r="AC40" s="16"/>
-      <c r="AD40" s="18"/>
-      <c r="AE40" s="16"/>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="17"/>
-      <c r="AH40" s="17"/>
-      <c r="AI40" s="18"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="7"/>
     </row>
     <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="15"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="12" t="s">
-        <v>98</v>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="11" t="s">
+        <v>92</v>
       </c>
-      <c r="L41" s="32"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="31" t="s">
+      <c r="L41" s="12"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O41" s="38"/>
-      <c r="P41" s="39"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="19"/>
       <c r="Q41" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R41" s="15"/>
+      <c r="R41" s="5"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="15"/>
+      <c r="T41" s="5"/>
       <c r="U41" s="4"/>
-      <c r="V41" s="15"/>
+      <c r="V41" s="5"/>
       <c r="W41" s="4"/>
-      <c r="X41" s="15"/>
+      <c r="X41" s="5"/>
       <c r="Y41" s="4"/>
-      <c r="Z41" s="15"/>
+      <c r="Z41" s="5"/>
       <c r="AA41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB41" s="15"/>
+      <c r="AB41" s="5"/>
       <c r="AC41" s="4"/>
-      <c r="AD41" s="15"/>
+      <c r="AD41" s="5"/>
       <c r="AE41" s="4"/>
-      <c r="AF41" s="14"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="14"/>
-      <c r="AI41" s="15"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="5"/>
     </row>
     <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="18"/>
-      <c r="Y42" s="16"/>
-      <c r="Z42" s="18"/>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="18"/>
-      <c r="AC42" s="16"/>
-      <c r="AD42" s="18"/>
-      <c r="AE42" s="16"/>
-      <c r="AF42" s="17"/>
-      <c r="AG42" s="17"/>
-      <c r="AH42" s="17"/>
-      <c r="AI42" s="18"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="9"/>
+      <c r="AG42" s="9"/>
+      <c r="AH42" s="9"/>
+      <c r="AI42" s="7"/>
     </row>
     <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="5"/>
       <c r="E43" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="4" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="12" t="s">
-        <v>82</v>
+      <c r="K43" s="11" t="s">
+        <v>94</v>
       </c>
-      <c r="L43" s="8"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="31" t="s">
-        <v>7</v>
+      <c r="L43" s="12"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="4" t="s">
+        <v>32</v>
       </c>
-      <c r="O43" s="8"/>
-      <c r="P43" s="5"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="19"/>
       <c r="Q43" s="4" t="s">
         <v>66</v>
       </c>
@@ -2919,7 +2913,7 @@
       <c r="AI43" s="5"/>
     </row>
     <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="6"/>
       <c r="C44" s="9"/>
       <c r="D44" s="7"/>
@@ -2929,12 +2923,12 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="7"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="7"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="22"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="7"/>
       <c r="S44" s="6"/>
@@ -2957,33 +2951,33 @@
     </row>
     <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="5"/>
       <c r="E45" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="4" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="12" t="s">
-        <v>83</v>
+      <c r="K45" s="11" t="s">
+        <v>96</v>
       </c>
-      <c r="L45" s="8"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="31" t="s">
-        <v>7</v>
+      <c r="L45" s="12"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="4" t="s">
+        <v>32</v>
       </c>
-      <c r="O45" s="8"/>
-      <c r="P45" s="5"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="19"/>
       <c r="Q45" s="4" t="s">
         <v>66</v>
       </c>
@@ -3009,7 +3003,7 @@
       <c r="AI45" s="5"/>
     </row>
     <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="6"/>
       <c r="C46" s="9"/>
       <c r="D46" s="7"/>
@@ -3019,12 +3013,12 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="7"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="7"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="22"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="7"/>
       <c r="S46" s="6"/>
@@ -3047,628 +3041,596 @@
     </row>
     <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="19"/>
       <c r="E47" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F47" s="5"/>
+      <c r="F47" s="19"/>
       <c r="G47" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="12" t="s">
-        <v>84</v>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="11" t="s">
+        <v>80</v>
       </c>
-      <c r="L47" s="8"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="4" t="s">
+      <c r="L47" s="18"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="O47" s="8"/>
-      <c r="P47" s="5"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="19"/>
       <c r="Q47" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R47" s="5"/>
       <c r="S47" s="4"/>
-      <c r="T47" s="5"/>
+      <c r="T47" s="19"/>
       <c r="U47" s="4"/>
-      <c r="V47" s="5"/>
+      <c r="V47" s="19"/>
       <c r="W47" s="4"/>
-      <c r="X47" s="5"/>
+      <c r="X47" s="19"/>
       <c r="Y47" s="4"/>
-      <c r="Z47" s="5"/>
+      <c r="Z47" s="19"/>
       <c r="AA47" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB47" s="5"/>
+      <c r="AB47" s="19"/>
       <c r="AC47" s="4"/>
-      <c r="AD47" s="5"/>
+      <c r="AD47" s="19"/>
       <c r="AE47" s="4"/>
-      <c r="AF47" s="8"/>
-      <c r="AG47" s="8"/>
-      <c r="AH47" s="8"/>
-      <c r="AI47" s="5"/>
+      <c r="AF47" s="18"/>
+      <c r="AG47" s="18"/>
+      <c r="AH47" s="18"/>
+      <c r="AI47" s="19"/>
     </row>
     <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="7"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="22"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="7"/>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="7"/>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="7"/>
-      <c r="AE48" s="6"/>
-      <c r="AF48" s="9"/>
-      <c r="AG48" s="9"/>
-      <c r="AH48" s="9"/>
-      <c r="AI48" s="7"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="22"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" s="21"/>
+      <c r="AG48" s="21"/>
+      <c r="AH48" s="21"/>
+      <c r="AI48" s="22"/>
     </row>
     <row r="49" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="5"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="19"/>
       <c r="E49" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F49" s="5"/>
+      <c r="F49" s="19"/>
       <c r="G49" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="12" t="s">
-        <v>85</v>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="11" t="s">
+        <v>81</v>
       </c>
-      <c r="L49" s="8"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="4" t="s">
+      <c r="L49" s="18"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="O49" s="8"/>
-      <c r="P49" s="5"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="19"/>
       <c r="Q49" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R49" s="5"/>
       <c r="S49" s="4"/>
-      <c r="T49" s="5"/>
+      <c r="T49" s="19"/>
       <c r="U49" s="4"/>
-      <c r="V49" s="5"/>
+      <c r="V49" s="19"/>
       <c r="W49" s="4"/>
-      <c r="X49" s="5"/>
+      <c r="X49" s="19"/>
       <c r="Y49" s="4"/>
-      <c r="Z49" s="5"/>
+      <c r="Z49" s="19"/>
       <c r="AA49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB49" s="5"/>
+      <c r="AB49" s="19"/>
       <c r="AC49" s="4"/>
-      <c r="AD49" s="5"/>
+      <c r="AD49" s="19"/>
       <c r="AE49" s="4"/>
-      <c r="AF49" s="8"/>
-      <c r="AG49" s="8"/>
-      <c r="AH49" s="8"/>
-      <c r="AI49" s="5"/>
+      <c r="AF49" s="18"/>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="18"/>
+      <c r="AI49" s="19"/>
     </row>
     <row r="50" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="7"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="22"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="7"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="6"/>
-      <c r="AB50" s="7"/>
-      <c r="AC50" s="6"/>
-      <c r="AD50" s="7"/>
-      <c r="AE50" s="6"/>
-      <c r="AF50" s="9"/>
-      <c r="AG50" s="9"/>
-      <c r="AH50" s="9"/>
-      <c r="AI50" s="7"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="22"/>
+      <c r="AE50" s="20"/>
+      <c r="AF50" s="21"/>
+      <c r="AG50" s="21"/>
+      <c r="AH50" s="21"/>
+      <c r="AI50" s="22"/>
     </row>
     <row r="51" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="5"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="19"/>
       <c r="E51" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="F51" s="5"/>
+      <c r="F51" s="19"/>
       <c r="G51" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="12" t="s">
-        <v>86</v>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="11" t="s">
+        <v>82</v>
       </c>
-      <c r="L51" s="8"/>
-      <c r="M51" s="5"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="19"/>
       <c r="N51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O51" s="8"/>
-      <c r="P51" s="5"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="19"/>
       <c r="Q51" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R51" s="5"/>
       <c r="S51" s="4"/>
-      <c r="T51" s="5"/>
+      <c r="T51" s="19"/>
       <c r="U51" s="4"/>
-      <c r="V51" s="5"/>
+      <c r="V51" s="19"/>
       <c r="W51" s="4"/>
-      <c r="X51" s="5"/>
+      <c r="X51" s="19"/>
       <c r="Y51" s="4"/>
-      <c r="Z51" s="5"/>
+      <c r="Z51" s="19"/>
       <c r="AA51" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB51" s="5"/>
+      <c r="AB51" s="19"/>
       <c r="AC51" s="4"/>
-      <c r="AD51" s="5"/>
+      <c r="AD51" s="19"/>
       <c r="AE51" s="4"/>
-      <c r="AF51" s="8"/>
-      <c r="AG51" s="8"/>
-      <c r="AH51" s="8"/>
-      <c r="AI51" s="5"/>
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="18"/>
+      <c r="AI51" s="19"/>
     </row>
     <row r="52" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="7"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="22"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="6"/>
-      <c r="AB52" s="7"/>
-      <c r="AC52" s="6"/>
-      <c r="AD52" s="7"/>
-      <c r="AE52" s="6"/>
-      <c r="AF52" s="9"/>
-      <c r="AG52" s="9"/>
-      <c r="AH52" s="9"/>
-      <c r="AI52" s="7"/>
-    </row>
-    <row r="53" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S52" s="20"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="22"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="22"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="22"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="22"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="22"/>
+      <c r="AE52" s="20"/>
+      <c r="AF52" s="21"/>
+      <c r="AG52" s="21"/>
+      <c r="AH52" s="21"/>
+      <c r="AI52" s="22"/>
+    </row>
+    <row r="53" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="5"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
       <c r="E53" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="F53" s="5"/>
+      <c r="F53" s="19"/>
       <c r="G53" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="12" t="s">
-        <v>87</v>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="11" t="s">
+        <v>83</v>
       </c>
-      <c r="L53" s="8"/>
-      <c r="M53" s="5"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="19"/>
       <c r="N53" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O53" s="8"/>
-      <c r="P53" s="5"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="19"/>
       <c r="Q53" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R53" s="5"/>
       <c r="S53" s="4"/>
-      <c r="T53" s="5"/>
+      <c r="T53" s="19"/>
       <c r="U53" s="4"/>
-      <c r="V53" s="5"/>
+      <c r="V53" s="19"/>
       <c r="W53" s="4"/>
-      <c r="X53" s="5"/>
+      <c r="X53" s="19"/>
       <c r="Y53" s="4"/>
-      <c r="Z53" s="5"/>
+      <c r="Z53" s="19"/>
       <c r="AA53" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB53" s="5"/>
+      <c r="AB53" s="19"/>
       <c r="AC53" s="4"/>
-      <c r="AD53" s="5"/>
+      <c r="AD53" s="19"/>
       <c r="AE53" s="4"/>
-      <c r="AF53" s="8"/>
-      <c r="AG53" s="8"/>
-      <c r="AH53" s="8"/>
-      <c r="AI53" s="5"/>
-    </row>
-    <row r="54" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="7"/>
+      <c r="AF53" s="18"/>
+      <c r="AG53" s="18"/>
+      <c r="AH53" s="18"/>
+      <c r="AI53" s="19"/>
+    </row>
+    <row r="54" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="22"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="7"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="7"/>
-      <c r="AA54" s="6"/>
-      <c r="AB54" s="7"/>
-      <c r="AC54" s="6"/>
-      <c r="AD54" s="7"/>
-      <c r="AE54" s="6"/>
-      <c r="AF54" s="9"/>
-      <c r="AG54" s="9"/>
-      <c r="AH54" s="9"/>
-      <c r="AI54" s="7"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="22"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="22"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="22"/>
+      <c r="AA54" s="20"/>
+      <c r="AB54" s="22"/>
+      <c r="AC54" s="20"/>
+      <c r="AD54" s="22"/>
+      <c r="AE54" s="20"/>
+      <c r="AF54" s="21"/>
+      <c r="AG54" s="21"/>
+      <c r="AH54" s="21"/>
+      <c r="AI54" s="22"/>
     </row>
     <row r="55" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="5"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F55" s="5"/>
+      <c r="F55" s="19"/>
       <c r="G55" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="12" t="s">
-        <v>88</v>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="11" t="s">
+        <v>84</v>
       </c>
-      <c r="L55" s="8"/>
-      <c r="M55" s="5"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="19"/>
       <c r="N55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O55" s="8"/>
-      <c r="P55" s="5"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="19"/>
       <c r="Q55" s="4" t="s">
         <v>66</v>
       </c>
       <c r="R55" s="5"/>
       <c r="S55" s="4"/>
-      <c r="T55" s="5"/>
+      <c r="T55" s="19"/>
       <c r="U55" s="4"/>
-      <c r="V55" s="5"/>
+      <c r="V55" s="19"/>
       <c r="W55" s="4"/>
-      <c r="X55" s="5"/>
+      <c r="X55" s="19"/>
       <c r="Y55" s="4"/>
-      <c r="Z55" s="5"/>
+      <c r="Z55" s="19"/>
       <c r="AA55" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB55" s="5"/>
+      <c r="AB55" s="19"/>
       <c r="AC55" s="4"/>
-      <c r="AD55" s="5"/>
+      <c r="AD55" s="19"/>
       <c r="AE55" s="4"/>
-      <c r="AF55" s="8"/>
-      <c r="AG55" s="8"/>
-      <c r="AH55" s="8"/>
-      <c r="AI55" s="5"/>
-      <c r="AJ55" s="1"/>
-      <c r="AK55" s="1"/>
-      <c r="AL55" s="1"/>
-      <c r="AM55" s="1"/>
-      <c r="AN55" s="1"/>
-      <c r="AO55" s="1"/>
-      <c r="AP55" s="1"/>
-      <c r="AQ55" s="1"/>
+      <c r="AF55" s="18"/>
+      <c r="AG55" s="18"/>
+      <c r="AH55" s="18"/>
+      <c r="AI55" s="19"/>
     </row>
     <row r="56" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="11"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="7"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="22"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="7"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="7"/>
-      <c r="AA56" s="6"/>
-      <c r="AB56" s="7"/>
-      <c r="AC56" s="6"/>
-      <c r="AD56" s="7"/>
-      <c r="AE56" s="6"/>
-      <c r="AF56" s="9"/>
-      <c r="AG56" s="9"/>
-      <c r="AH56" s="9"/>
-      <c r="AI56" s="7"/>
-      <c r="AJ56" s="1"/>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="1"/>
-      <c r="AM56" s="1"/>
-      <c r="AN56" s="1"/>
-      <c r="AO56" s="1"/>
-      <c r="AP56" s="1"/>
-      <c r="AQ56" s="1"/>
-    </row>
-    <row r="57" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S56" s="20"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="20"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="20"/>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="21"/>
+      <c r="AH56" s="21"/>
+      <c r="AI56" s="22"/>
+    </row>
+    <row r="57" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="5"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="19"/>
       <c r="E57" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="5"/>
+      <c r="F57" s="19"/>
       <c r="G57" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="12" t="s">
-        <v>89</v>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="11" t="s">
+        <v>85</v>
       </c>
-      <c r="L57" s="8"/>
-      <c r="M57" s="5"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="19"/>
       <c r="N57" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O57" s="8"/>
-      <c r="P57" s="5"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="19"/>
       <c r="Q57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R57" s="5"/>
+      <c r="R57" s="19"/>
       <c r="S57" s="4"/>
-      <c r="T57" s="5"/>
+      <c r="T57" s="19"/>
       <c r="U57" s="4"/>
-      <c r="V57" s="5"/>
+      <c r="V57" s="19"/>
       <c r="W57" s="4"/>
-      <c r="X57" s="5"/>
+      <c r="X57" s="19"/>
       <c r="Y57" s="4"/>
-      <c r="Z57" s="5"/>
+      <c r="Z57" s="19"/>
       <c r="AA57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB57" s="5"/>
+      <c r="AB57" s="19"/>
       <c r="AC57" s="4"/>
-      <c r="AD57" s="5"/>
+      <c r="AD57" s="19"/>
       <c r="AE57" s="4"/>
-      <c r="AF57" s="8"/>
-      <c r="AG57" s="8"/>
-      <c r="AH57" s="8"/>
-      <c r="AI57" s="5"/>
-      <c r="AJ57" s="1"/>
-      <c r="AK57" s="1"/>
-      <c r="AL57" s="1"/>
-      <c r="AM57" s="1"/>
-      <c r="AN57" s="1"/>
-      <c r="AO57" s="1"/>
-      <c r="AP57" s="1"/>
-      <c r="AQ57" s="1"/>
-    </row>
-    <row r="58" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="7"/>
-      <c r="AA58" s="6"/>
-      <c r="AB58" s="7"/>
-      <c r="AC58" s="6"/>
-      <c r="AD58" s="7"/>
-      <c r="AE58" s="6"/>
-      <c r="AF58" s="9"/>
-      <c r="AG58" s="9"/>
-      <c r="AH58" s="9"/>
-      <c r="AI58" s="7"/>
-      <c r="AJ58" s="1"/>
-      <c r="AK58" s="1"/>
-      <c r="AL58" s="1"/>
-      <c r="AM58" s="1"/>
-      <c r="AN58" s="1"/>
-      <c r="AO58" s="1"/>
-      <c r="AP58" s="1"/>
-      <c r="AQ58" s="1"/>
+      <c r="AF57" s="18"/>
+      <c r="AG57" s="18"/>
+      <c r="AH57" s="18"/>
+      <c r="AI57" s="19"/>
+    </row>
+    <row r="58" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="23"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="20"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="20"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="20"/>
+      <c r="AB58" s="22"/>
+      <c r="AC58" s="20"/>
+      <c r="AD58" s="22"/>
+      <c r="AE58" s="20"/>
+      <c r="AF58" s="21"/>
+      <c r="AG58" s="21"/>
+      <c r="AH58" s="21"/>
+      <c r="AI58" s="22"/>
     </row>
     <row r="59" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="5"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="19"/>
       <c r="E59" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F59" s="5"/>
+      <c r="F59" s="19"/>
       <c r="G59" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="12" t="s">
-        <v>90</v>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="11" t="s">
+        <v>86</v>
       </c>
-      <c r="L59" s="8"/>
-      <c r="M59" s="5"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="19"/>
       <c r="N59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O59" s="8"/>
-      <c r="P59" s="5"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="19"/>
       <c r="Q59" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R59" s="5"/>
+      <c r="R59" s="19"/>
       <c r="S59" s="4"/>
-      <c r="T59" s="5"/>
+      <c r="T59" s="19"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="5"/>
+      <c r="V59" s="19"/>
       <c r="W59" s="4"/>
-      <c r="X59" s="5"/>
+      <c r="X59" s="19"/>
       <c r="Y59" s="4"/>
-      <c r="Z59" s="5"/>
+      <c r="Z59" s="19"/>
       <c r="AA59" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB59" s="5"/>
+      <c r="AB59" s="19"/>
       <c r="AC59" s="4"/>
-      <c r="AD59" s="5"/>
+      <c r="AD59" s="19"/>
       <c r="AE59" s="4"/>
-      <c r="AF59" s="8"/>
-      <c r="AG59" s="8"/>
-      <c r="AH59" s="8"/>
-      <c r="AI59" s="5"/>
+      <c r="AF59" s="18"/>
+      <c r="AG59" s="18"/>
+      <c r="AH59" s="18"/>
+      <c r="AI59" s="19"/>
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
@@ -3679,41 +3641,41 @@
       <c r="AQ59" s="1"/>
     </row>
     <row r="60" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="7"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="7"/>
-      <c r="AA60" s="6"/>
-      <c r="AB60" s="7"/>
-      <c r="AC60" s="6"/>
-      <c r="AD60" s="7"/>
-      <c r="AE60" s="6"/>
-      <c r="AF60" s="9"/>
-      <c r="AG60" s="9"/>
-      <c r="AH60" s="9"/>
-      <c r="AI60" s="7"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="20"/>
+      <c r="AB60" s="22"/>
+      <c r="AC60" s="20"/>
+      <c r="AD60" s="22"/>
+      <c r="AE60" s="20"/>
+      <c r="AF60" s="21"/>
+      <c r="AG60" s="21"/>
+      <c r="AH60" s="21"/>
+      <c r="AI60" s="22"/>
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
@@ -3725,56 +3687,56 @@
     </row>
     <row r="61" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="5"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="19"/>
       <c r="E61" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F61" s="5"/>
+      <c r="F61" s="19"/>
       <c r="G61" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="12" t="s">
-        <v>91</v>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="11" t="s">
+        <v>87</v>
       </c>
-      <c r="L61" s="8"/>
-      <c r="M61" s="5"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="19"/>
       <c r="N61" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O61" s="8"/>
-      <c r="P61" s="5"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="19"/>
       <c r="Q61" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R61" s="5"/>
+      <c r="R61" s="19"/>
       <c r="S61" s="4"/>
-      <c r="T61" s="5"/>
+      <c r="T61" s="19"/>
       <c r="U61" s="4"/>
-      <c r="V61" s="5"/>
+      <c r="V61" s="19"/>
       <c r="W61" s="4"/>
-      <c r="X61" s="5"/>
+      <c r="X61" s="19"/>
       <c r="Y61" s="4"/>
-      <c r="Z61" s="5"/>
+      <c r="Z61" s="19"/>
       <c r="AA61" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB61" s="5"/>
+      <c r="AB61" s="19"/>
       <c r="AC61" s="4"/>
-      <c r="AD61" s="5"/>
+      <c r="AD61" s="19"/>
       <c r="AE61" s="4"/>
-      <c r="AF61" s="8"/>
-      <c r="AG61" s="8"/>
-      <c r="AH61" s="8"/>
-      <c r="AI61" s="5"/>
+      <c r="AF61" s="18"/>
+      <c r="AG61" s="18"/>
+      <c r="AH61" s="18"/>
+      <c r="AI61" s="19"/>
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
@@ -3785,41 +3747,41 @@
       <c r="AQ61" s="1"/>
     </row>
     <row r="62" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="7"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="7"/>
-      <c r="AA62" s="6"/>
-      <c r="AB62" s="7"/>
-      <c r="AC62" s="6"/>
-      <c r="AD62" s="7"/>
-      <c r="AE62" s="6"/>
-      <c r="AF62" s="9"/>
-      <c r="AG62" s="9"/>
-      <c r="AH62" s="9"/>
-      <c r="AI62" s="7"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="22"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="22"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="22"/>
+      <c r="Y62" s="20"/>
+      <c r="Z62" s="22"/>
+      <c r="AA62" s="20"/>
+      <c r="AB62" s="22"/>
+      <c r="AC62" s="20"/>
+      <c r="AD62" s="22"/>
+      <c r="AE62" s="20"/>
+      <c r="AF62" s="21"/>
+      <c r="AG62" s="21"/>
+      <c r="AH62" s="21"/>
+      <c r="AI62" s="22"/>
       <c r="AJ62" s="1"/>
       <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
@@ -3831,56 +3793,56 @@
     </row>
     <row r="63" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="5"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="19"/>
       <c r="E63" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F63" s="5"/>
+      <c r="F63" s="19"/>
       <c r="G63" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="12" t="s">
-        <v>92</v>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="11" t="s">
+        <v>88</v>
       </c>
-      <c r="L63" s="8"/>
-      <c r="M63" s="5"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="19"/>
       <c r="N63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O63" s="8"/>
-      <c r="P63" s="5"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="19"/>
       <c r="Q63" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R63" s="5"/>
+      <c r="R63" s="19"/>
       <c r="S63" s="4"/>
-      <c r="T63" s="5"/>
+      <c r="T63" s="19"/>
       <c r="U63" s="4"/>
-      <c r="V63" s="5"/>
+      <c r="V63" s="19"/>
       <c r="W63" s="4"/>
-      <c r="X63" s="5"/>
+      <c r="X63" s="19"/>
       <c r="Y63" s="4"/>
-      <c r="Z63" s="5"/>
+      <c r="Z63" s="19"/>
       <c r="AA63" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB63" s="5"/>
+      <c r="AB63" s="19"/>
       <c r="AC63" s="4"/>
-      <c r="AD63" s="5"/>
+      <c r="AD63" s="19"/>
       <c r="AE63" s="4"/>
-      <c r="AF63" s="8"/>
-      <c r="AG63" s="8"/>
-      <c r="AH63" s="8"/>
-      <c r="AI63" s="5"/>
+      <c r="AF63" s="18"/>
+      <c r="AG63" s="18"/>
+      <c r="AH63" s="18"/>
+      <c r="AI63" s="19"/>
       <c r="AJ63" s="1"/>
       <c r="AK63" s="1"/>
       <c r="AL63" s="1"/>
@@ -3891,41 +3853,41 @@
       <c r="AQ63" s="1"/>
     </row>
     <row r="64" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="11"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="7"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="7"/>
-      <c r="AA64" s="6"/>
-      <c r="AB64" s="7"/>
-      <c r="AC64" s="6"/>
-      <c r="AD64" s="7"/>
-      <c r="AE64" s="6"/>
-      <c r="AF64" s="9"/>
-      <c r="AG64" s="9"/>
-      <c r="AH64" s="9"/>
-      <c r="AI64" s="7"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="22"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="22"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="22"/>
+      <c r="W64" s="20"/>
+      <c r="X64" s="22"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="22"/>
+      <c r="AA64" s="20"/>
+      <c r="AB64" s="22"/>
+      <c r="AC64" s="20"/>
+      <c r="AD64" s="22"/>
+      <c r="AE64" s="20"/>
+      <c r="AF64" s="21"/>
+      <c r="AG64" s="21"/>
+      <c r="AH64" s="21"/>
+      <c r="AI64" s="22"/>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
       <c r="AL64" s="1"/>
@@ -3936,41 +3898,57 @@
       <c r="AQ64" s="1"/>
     </row>
     <row r="65" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-      <c r="AA65" s="1"/>
-      <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
-      <c r="AD65" s="1"/>
-      <c r="AE65" s="1"/>
-      <c r="AF65" s="1"/>
-      <c r="AG65" s="1"/>
-      <c r="AH65" s="1"/>
-      <c r="AI65" s="1"/>
+      <c r="A65" s="10">
+        <v>31</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="19"/>
+      <c r="G65" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L65" s="18"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O65" s="18"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R65" s="19"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="19"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="19"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="19"/>
+      <c r="AA65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB65" s="19"/>
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="19"/>
+      <c r="AE65" s="4"/>
+      <c r="AF65" s="18"/>
+      <c r="AG65" s="18"/>
+      <c r="AH65" s="18"/>
+      <c r="AI65" s="19"/>
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
@@ -3981,41 +3959,41 @@
       <c r="AQ65" s="1"/>
     </row>
     <row r="66" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
-      <c r="AB66" s="1"/>
-      <c r="AC66" s="1"/>
-      <c r="AD66" s="1"/>
-      <c r="AE66" s="1"/>
-      <c r="AF66" s="1"/>
-      <c r="AG66" s="1"/>
-      <c r="AH66" s="1"/>
-      <c r="AI66" s="1"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="22"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="22"/>
+      <c r="W66" s="20"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="22"/>
+      <c r="AA66" s="20"/>
+      <c r="AB66" s="22"/>
+      <c r="AC66" s="20"/>
+      <c r="AD66" s="22"/>
+      <c r="AE66" s="20"/>
+      <c r="AF66" s="21"/>
+      <c r="AG66" s="21"/>
+      <c r="AH66" s="21"/>
+      <c r="AI66" s="22"/>
       <c r="AJ66" s="1"/>
       <c r="AK66" s="1"/>
       <c r="AL66" s="1"/>
@@ -4026,41 +4004,57 @@
       <c r="AQ66" s="1"/>
     </row>
     <row r="67" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
-      <c r="AG67" s="1"/>
-      <c r="AH67" s="1"/>
-      <c r="AI67" s="1"/>
+      <c r="A67" s="10">
+        <v>32</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" s="19"/>
+      <c r="G67" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L67" s="18"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O67" s="18"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R67" s="19"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="19"/>
+      <c r="AA67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB67" s="19"/>
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="19"/>
+      <c r="AE67" s="4"/>
+      <c r="AF67" s="18"/>
+      <c r="AG67" s="18"/>
+      <c r="AH67" s="18"/>
+      <c r="AI67" s="19"/>
       <c r="AJ67" s="1"/>
       <c r="AK67" s="1"/>
       <c r="AL67" s="1"/>
@@ -4071,41 +4065,41 @@
       <c r="AQ67" s="1"/>
     </row>
     <row r="68" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
-      <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
-      <c r="AE68" s="1"/>
-      <c r="AF68" s="1"/>
-      <c r="AG68" s="1"/>
-      <c r="AH68" s="1"/>
-      <c r="AI68" s="1"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="22"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="22"/>
+      <c r="W68" s="20"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="20"/>
+      <c r="Z68" s="22"/>
+      <c r="AA68" s="20"/>
+      <c r="AB68" s="22"/>
+      <c r="AC68" s="20"/>
+      <c r="AD68" s="22"/>
+      <c r="AE68" s="20"/>
+      <c r="AF68" s="21"/>
+      <c r="AG68" s="21"/>
+      <c r="AH68" s="21"/>
+      <c r="AI68" s="22"/>
       <c r="AJ68" s="1"/>
       <c r="AK68" s="1"/>
       <c r="AL68" s="1"/>
@@ -46145,176 +46139,449 @@
       <c r="AP1002" s="1"/>
       <c r="AQ1002" s="1"/>
     </row>
+    <row r="1003" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1003" s="1"/>
+      <c r="B1003" s="1"/>
+      <c r="C1003" s="1"/>
+      <c r="D1003" s="1"/>
+      <c r="E1003" s="1"/>
+      <c r="F1003" s="1"/>
+      <c r="G1003" s="1"/>
+      <c r="H1003" s="1"/>
+      <c r="I1003" s="1"/>
+      <c r="J1003" s="1"/>
+      <c r="K1003" s="1"/>
+      <c r="L1003" s="1"/>
+      <c r="M1003" s="1"/>
+      <c r="N1003" s="1"/>
+      <c r="O1003" s="1"/>
+      <c r="P1003" s="1"/>
+      <c r="Q1003" s="1"/>
+      <c r="R1003" s="1"/>
+      <c r="S1003" s="1"/>
+      <c r="T1003" s="1"/>
+      <c r="U1003" s="1"/>
+      <c r="V1003" s="1"/>
+      <c r="W1003" s="1"/>
+      <c r="X1003" s="1"/>
+      <c r="Y1003" s="1"/>
+      <c r="Z1003" s="1"/>
+      <c r="AA1003" s="1"/>
+      <c r="AB1003" s="1"/>
+      <c r="AC1003" s="1"/>
+      <c r="AD1003" s="1"/>
+      <c r="AE1003" s="1"/>
+      <c r="AF1003" s="1"/>
+      <c r="AG1003" s="1"/>
+      <c r="AH1003" s="1"/>
+      <c r="AI1003" s="1"/>
+      <c r="AJ1003" s="1"/>
+      <c r="AK1003" s="1"/>
+      <c r="AL1003" s="1"/>
+      <c r="AM1003" s="1"/>
+      <c r="AN1003" s="1"/>
+      <c r="AO1003" s="1"/>
+      <c r="AP1003" s="1"/>
+      <c r="AQ1003" s="1"/>
+    </row>
+    <row r="1004" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1004" s="1"/>
+      <c r="B1004" s="1"/>
+      <c r="C1004" s="1"/>
+      <c r="D1004" s="1"/>
+      <c r="E1004" s="1"/>
+      <c r="F1004" s="1"/>
+      <c r="G1004" s="1"/>
+      <c r="H1004" s="1"/>
+      <c r="I1004" s="1"/>
+      <c r="J1004" s="1"/>
+      <c r="K1004" s="1"/>
+      <c r="L1004" s="1"/>
+      <c r="M1004" s="1"/>
+      <c r="N1004" s="1"/>
+      <c r="O1004" s="1"/>
+      <c r="P1004" s="1"/>
+      <c r="Q1004" s="1"/>
+      <c r="R1004" s="1"/>
+      <c r="S1004" s="1"/>
+      <c r="T1004" s="1"/>
+      <c r="U1004" s="1"/>
+      <c r="V1004" s="1"/>
+      <c r="W1004" s="1"/>
+      <c r="X1004" s="1"/>
+      <c r="Y1004" s="1"/>
+      <c r="Z1004" s="1"/>
+      <c r="AA1004" s="1"/>
+      <c r="AB1004" s="1"/>
+      <c r="AC1004" s="1"/>
+      <c r="AD1004" s="1"/>
+      <c r="AE1004" s="1"/>
+      <c r="AF1004" s="1"/>
+      <c r="AG1004" s="1"/>
+      <c r="AH1004" s="1"/>
+      <c r="AI1004" s="1"/>
+      <c r="AJ1004" s="1"/>
+      <c r="AK1004" s="1"/>
+      <c r="AL1004" s="1"/>
+      <c r="AM1004" s="1"/>
+      <c r="AN1004" s="1"/>
+      <c r="AO1004" s="1"/>
+      <c r="AP1004" s="1"/>
+      <c r="AQ1004" s="1"/>
+    </row>
+    <row r="1005" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1005" s="1"/>
+      <c r="B1005" s="1"/>
+      <c r="C1005" s="1"/>
+      <c r="D1005" s="1"/>
+      <c r="E1005" s="1"/>
+      <c r="F1005" s="1"/>
+      <c r="G1005" s="1"/>
+      <c r="H1005" s="1"/>
+      <c r="I1005" s="1"/>
+      <c r="J1005" s="1"/>
+      <c r="K1005" s="1"/>
+      <c r="L1005" s="1"/>
+      <c r="M1005" s="1"/>
+      <c r="N1005" s="1"/>
+      <c r="O1005" s="1"/>
+      <c r="P1005" s="1"/>
+      <c r="Q1005" s="1"/>
+      <c r="R1005" s="1"/>
+      <c r="S1005" s="1"/>
+      <c r="T1005" s="1"/>
+      <c r="U1005" s="1"/>
+      <c r="V1005" s="1"/>
+      <c r="W1005" s="1"/>
+      <c r="X1005" s="1"/>
+      <c r="Y1005" s="1"/>
+      <c r="Z1005" s="1"/>
+      <c r="AA1005" s="1"/>
+      <c r="AB1005" s="1"/>
+      <c r="AC1005" s="1"/>
+      <c r="AD1005" s="1"/>
+      <c r="AE1005" s="1"/>
+      <c r="AF1005" s="1"/>
+      <c r="AG1005" s="1"/>
+      <c r="AH1005" s="1"/>
+      <c r="AI1005" s="1"/>
+      <c r="AJ1005" s="1"/>
+      <c r="AK1005" s="1"/>
+      <c r="AL1005" s="1"/>
+      <c r="AM1005" s="1"/>
+      <c r="AN1005" s="1"/>
+      <c r="AO1005" s="1"/>
+      <c r="AP1005" s="1"/>
+      <c r="AQ1005" s="1"/>
+    </row>
+    <row r="1006" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1006" s="1"/>
+      <c r="B1006" s="1"/>
+      <c r="C1006" s="1"/>
+      <c r="D1006" s="1"/>
+      <c r="E1006" s="1"/>
+      <c r="F1006" s="1"/>
+      <c r="G1006" s="1"/>
+      <c r="H1006" s="1"/>
+      <c r="I1006" s="1"/>
+      <c r="J1006" s="1"/>
+      <c r="K1006" s="1"/>
+      <c r="L1006" s="1"/>
+      <c r="M1006" s="1"/>
+      <c r="N1006" s="1"/>
+      <c r="O1006" s="1"/>
+      <c r="P1006" s="1"/>
+      <c r="Q1006" s="1"/>
+      <c r="R1006" s="1"/>
+      <c r="S1006" s="1"/>
+      <c r="T1006" s="1"/>
+      <c r="U1006" s="1"/>
+      <c r="V1006" s="1"/>
+      <c r="W1006" s="1"/>
+      <c r="X1006" s="1"/>
+      <c r="Y1006" s="1"/>
+      <c r="Z1006" s="1"/>
+      <c r="AA1006" s="1"/>
+      <c r="AB1006" s="1"/>
+      <c r="AC1006" s="1"/>
+      <c r="AD1006" s="1"/>
+      <c r="AE1006" s="1"/>
+      <c r="AF1006" s="1"/>
+      <c r="AG1006" s="1"/>
+      <c r="AH1006" s="1"/>
+      <c r="AI1006" s="1"/>
+      <c r="AJ1006" s="1"/>
+      <c r="AK1006" s="1"/>
+      <c r="AL1006" s="1"/>
+      <c r="AM1006" s="1"/>
+      <c r="AN1006" s="1"/>
+      <c r="AO1006" s="1"/>
+      <c r="AP1006" s="1"/>
+      <c r="AQ1006" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="425">
-    <mergeCell ref="AA39:AB40"/>
-    <mergeCell ref="AC39:AD40"/>
-    <mergeCell ref="AE39:AI40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:D42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="G41:J42"/>
-    <mergeCell ref="K41:M42"/>
-    <mergeCell ref="N41:P42"/>
-    <mergeCell ref="Q41:R42"/>
-    <mergeCell ref="S41:T42"/>
-    <mergeCell ref="U41:V42"/>
-    <mergeCell ref="W41:X42"/>
-    <mergeCell ref="Y41:Z42"/>
-    <mergeCell ref="AA41:AB42"/>
-    <mergeCell ref="AC41:AD42"/>
-    <mergeCell ref="AE41:AI42"/>
-    <mergeCell ref="AE23:AI24"/>
-    <mergeCell ref="N23:P24"/>
+  <mergeCells count="453">
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="AC21:AD22"/>
+    <mergeCell ref="AE21:AI22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:J20"/>
+    <mergeCell ref="K19:M20"/>
+    <mergeCell ref="N19:P20"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="U19:V20"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="AA19:AB20"/>
+    <mergeCell ref="AC19:AD20"/>
+    <mergeCell ref="AE19:AI20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:J22"/>
+    <mergeCell ref="K21:M22"/>
+    <mergeCell ref="N21:P22"/>
+    <mergeCell ref="Q21:R22"/>
     <mergeCell ref="Q23:R24"/>
-    <mergeCell ref="S23:T24"/>
-    <mergeCell ref="U23:V24"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="Y23:Z24"/>
-    <mergeCell ref="AA27:AB28"/>
-    <mergeCell ref="AC27:AD28"/>
-    <mergeCell ref="N27:P28"/>
-    <mergeCell ref="Q27:R28"/>
-    <mergeCell ref="S27:T28"/>
-    <mergeCell ref="U27:V28"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Z28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:J24"/>
-    <mergeCell ref="K23:M24"/>
-    <mergeCell ref="AA25:AB26"/>
-    <mergeCell ref="AC25:AD26"/>
+    <mergeCell ref="W67:X68"/>
+    <mergeCell ref="Y67:Z68"/>
+    <mergeCell ref="AA67:AB68"/>
+    <mergeCell ref="AC67:AD68"/>
+    <mergeCell ref="AE67:AI68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:D66"/>
+    <mergeCell ref="E65:F66"/>
+    <mergeCell ref="G65:J66"/>
+    <mergeCell ref="K65:M66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="E67:F68"/>
+    <mergeCell ref="G67:J68"/>
+    <mergeCell ref="K67:M68"/>
+    <mergeCell ref="N67:P68"/>
+    <mergeCell ref="Q67:R68"/>
+    <mergeCell ref="S67:T68"/>
+    <mergeCell ref="U67:V68"/>
+    <mergeCell ref="N65:P66"/>
+    <mergeCell ref="Q65:R66"/>
+    <mergeCell ref="S65:T66"/>
+    <mergeCell ref="U65:V66"/>
+    <mergeCell ref="W61:X62"/>
+    <mergeCell ref="Y61:Z62"/>
+    <mergeCell ref="AA61:AB62"/>
+    <mergeCell ref="AC61:AD62"/>
+    <mergeCell ref="AE61:AI62"/>
+    <mergeCell ref="W63:X64"/>
+    <mergeCell ref="Y63:Z64"/>
+    <mergeCell ref="AA63:AB64"/>
+    <mergeCell ref="AC63:AD64"/>
+    <mergeCell ref="AE63:AI64"/>
+    <mergeCell ref="W65:X66"/>
+    <mergeCell ref="Y65:Z66"/>
+    <mergeCell ref="AA65:AB66"/>
+    <mergeCell ref="AC65:AD66"/>
+    <mergeCell ref="AE65:AI66"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:F64"/>
+    <mergeCell ref="G63:J64"/>
+    <mergeCell ref="K63:M64"/>
+    <mergeCell ref="N63:P64"/>
+    <mergeCell ref="Q63:R64"/>
+    <mergeCell ref="S63:T64"/>
+    <mergeCell ref="U63:V64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:F62"/>
+    <mergeCell ref="G61:J62"/>
+    <mergeCell ref="K61:M62"/>
+    <mergeCell ref="N61:P62"/>
+    <mergeCell ref="Q61:R62"/>
+    <mergeCell ref="S61:T62"/>
+    <mergeCell ref="U61:V62"/>
+    <mergeCell ref="W57:X58"/>
+    <mergeCell ref="Y57:Z58"/>
+    <mergeCell ref="AA57:AB58"/>
+    <mergeCell ref="AC57:AD58"/>
+    <mergeCell ref="AE57:AI58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="E59:F60"/>
+    <mergeCell ref="G59:J60"/>
+    <mergeCell ref="K59:M60"/>
+    <mergeCell ref="N59:P60"/>
+    <mergeCell ref="Q59:R60"/>
+    <mergeCell ref="S59:T60"/>
+    <mergeCell ref="U59:V60"/>
+    <mergeCell ref="W59:X60"/>
+    <mergeCell ref="Y59:Z60"/>
+    <mergeCell ref="AA59:AB60"/>
+    <mergeCell ref="AC59:AD60"/>
+    <mergeCell ref="AE59:AI60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="E57:F58"/>
+    <mergeCell ref="G57:J58"/>
+    <mergeCell ref="K57:M58"/>
+    <mergeCell ref="N57:P58"/>
+    <mergeCell ref="Q57:R58"/>
+    <mergeCell ref="S57:T58"/>
+    <mergeCell ref="U57:V58"/>
+    <mergeCell ref="K53:M54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:D56"/>
+    <mergeCell ref="E55:F56"/>
+    <mergeCell ref="G55:J56"/>
+    <mergeCell ref="K55:M56"/>
+    <mergeCell ref="AE53:AI54"/>
+    <mergeCell ref="AE55:AI56"/>
+    <mergeCell ref="N53:P54"/>
+    <mergeCell ref="Q53:R54"/>
+    <mergeCell ref="S53:T54"/>
+    <mergeCell ref="U53:V54"/>
+    <mergeCell ref="W53:X54"/>
+    <mergeCell ref="Y53:Z54"/>
+    <mergeCell ref="AE51:AI52"/>
+    <mergeCell ref="N51:P52"/>
+    <mergeCell ref="Q51:R52"/>
+    <mergeCell ref="S51:T52"/>
+    <mergeCell ref="U51:V52"/>
+    <mergeCell ref="W51:X52"/>
+    <mergeCell ref="Y51:Z52"/>
+    <mergeCell ref="AA55:AB56"/>
+    <mergeCell ref="AC55:AD56"/>
+    <mergeCell ref="N55:P56"/>
+    <mergeCell ref="Q55:R56"/>
+    <mergeCell ref="S55:T56"/>
+    <mergeCell ref="U55:V56"/>
+    <mergeCell ref="W55:X56"/>
+    <mergeCell ref="Y55:Z56"/>
+    <mergeCell ref="AA51:AB52"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:F52"/>
+    <mergeCell ref="G51:J52"/>
+    <mergeCell ref="K51:M52"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:D26"/>
     <mergeCell ref="E25:F26"/>
     <mergeCell ref="G25:J26"/>
     <mergeCell ref="K25:M26"/>
-    <mergeCell ref="AA23:AB24"/>
-    <mergeCell ref="AC23:AD24"/>
+    <mergeCell ref="K35:M36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="G37:J38"/>
+    <mergeCell ref="K37:M38"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="G33:J34"/>
+    <mergeCell ref="K33:M34"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:D32"/>
     <mergeCell ref="E31:F32"/>
-    <mergeCell ref="G31:J32"/>
+    <mergeCell ref="AC51:AD52"/>
+    <mergeCell ref="AA53:AB54"/>
+    <mergeCell ref="AC53:AD54"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:D54"/>
+    <mergeCell ref="E53:F54"/>
+    <mergeCell ref="G53:J54"/>
+    <mergeCell ref="AE23:AI24"/>
     <mergeCell ref="AE25:AI26"/>
-    <mergeCell ref="AE27:AI28"/>
+    <mergeCell ref="N23:P24"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="U23:V24"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="Y23:Z24"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E49:F50"/>
+    <mergeCell ref="G49:J50"/>
+    <mergeCell ref="K49:M50"/>
+    <mergeCell ref="AE47:AI48"/>
+    <mergeCell ref="AE49:AI50"/>
+    <mergeCell ref="N47:P48"/>
+    <mergeCell ref="Q47:R48"/>
+    <mergeCell ref="AA25:AB26"/>
+    <mergeCell ref="AC25:AD26"/>
     <mergeCell ref="N25:P26"/>
     <mergeCell ref="Q25:R26"/>
     <mergeCell ref="S25:T26"/>
     <mergeCell ref="U25:V26"/>
     <mergeCell ref="W25:X26"/>
     <mergeCell ref="Y25:Z26"/>
-    <mergeCell ref="G27:J28"/>
-    <mergeCell ref="K27:M28"/>
-    <mergeCell ref="AA33:AB34"/>
-    <mergeCell ref="AC33:AD34"/>
-    <mergeCell ref="N33:P34"/>
-    <mergeCell ref="Q33:R34"/>
-    <mergeCell ref="S33:T34"/>
-    <mergeCell ref="U33:V34"/>
-    <mergeCell ref="W33:X34"/>
-    <mergeCell ref="Y33:Z34"/>
-    <mergeCell ref="AA29:AB30"/>
-    <mergeCell ref="AC29:AD30"/>
-    <mergeCell ref="AA31:AB32"/>
-    <mergeCell ref="AC31:AD32"/>
-    <mergeCell ref="AE31:AI32"/>
-    <mergeCell ref="AE33:AI34"/>
-    <mergeCell ref="N31:P32"/>
-    <mergeCell ref="Q31:R32"/>
-    <mergeCell ref="S31:T32"/>
-    <mergeCell ref="U31:V32"/>
-    <mergeCell ref="W31:X32"/>
-    <mergeCell ref="Y31:Z32"/>
-    <mergeCell ref="AE29:AI30"/>
-    <mergeCell ref="N29:P30"/>
-    <mergeCell ref="Q29:R30"/>
-    <mergeCell ref="S29:T30"/>
-    <mergeCell ref="U29:V30"/>
-    <mergeCell ref="W29:X30"/>
-    <mergeCell ref="Y29:Z30"/>
-    <mergeCell ref="AE35:AI36"/>
-    <mergeCell ref="N35:P36"/>
-    <mergeCell ref="Q35:R36"/>
-    <mergeCell ref="S35:T36"/>
-    <mergeCell ref="U35:V36"/>
-    <mergeCell ref="W35:X36"/>
-    <mergeCell ref="Y35:Z36"/>
-    <mergeCell ref="AA45:AB46"/>
-    <mergeCell ref="AC45:AD46"/>
-    <mergeCell ref="N45:P46"/>
-    <mergeCell ref="Q45:R46"/>
-    <mergeCell ref="S45:T46"/>
-    <mergeCell ref="U45:V46"/>
-    <mergeCell ref="W45:X46"/>
-    <mergeCell ref="Y45:Z46"/>
-    <mergeCell ref="N37:P38"/>
-    <mergeCell ref="Q37:R38"/>
-    <mergeCell ref="S37:T38"/>
-    <mergeCell ref="U37:V38"/>
-    <mergeCell ref="W37:X38"/>
-    <mergeCell ref="Y37:Z38"/>
-    <mergeCell ref="AA37:AB38"/>
-    <mergeCell ref="AC37:AD38"/>
-    <mergeCell ref="AE37:AI38"/>
-    <mergeCell ref="AA43:AB44"/>
-    <mergeCell ref="AC43:AD44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:D44"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="G43:J44"/>
-    <mergeCell ref="K43:M44"/>
-    <mergeCell ref="AA35:AB36"/>
-    <mergeCell ref="AC35:AD36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="G37:J38"/>
-    <mergeCell ref="K37:M38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="G39:J40"/>
-    <mergeCell ref="K39:M40"/>
-    <mergeCell ref="N39:P40"/>
-    <mergeCell ref="Q39:R40"/>
-    <mergeCell ref="S39:T40"/>
-    <mergeCell ref="U39:V40"/>
-    <mergeCell ref="W39:X40"/>
-    <mergeCell ref="S43:T44"/>
-    <mergeCell ref="U43:V44"/>
-    <mergeCell ref="W43:X44"/>
-    <mergeCell ref="Y43:Z44"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="G35:J36"/>
-    <mergeCell ref="K35:M36"/>
-    <mergeCell ref="Y39:Z40"/>
-    <mergeCell ref="AA9:AB10"/>
-    <mergeCell ref="AC9:AD10"/>
-    <mergeCell ref="N9:P10"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="U9:V10"/>
-    <mergeCell ref="W9:X10"/>
-    <mergeCell ref="Y9:Z10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:J10"/>
-    <mergeCell ref="K9:M10"/>
-    <mergeCell ref="AE5:AI6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="K5:M6"/>
-    <mergeCell ref="N5:P6"/>
-    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:J18"/>
+    <mergeCell ref="K17:M18"/>
+    <mergeCell ref="AA23:AB24"/>
+    <mergeCell ref="AC23:AD24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:J24"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="AA17:AB18"/>
+    <mergeCell ref="AC17:AD18"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:J16"/>
+    <mergeCell ref="K15:M16"/>
+    <mergeCell ref="AE17:AI18"/>
+    <mergeCell ref="N17:P18"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="U17:V18"/>
+    <mergeCell ref="W17:X18"/>
+    <mergeCell ref="Y17:Z18"/>
+    <mergeCell ref="AE13:AI14"/>
+    <mergeCell ref="AE15:AI16"/>
+    <mergeCell ref="N13:P14"/>
+    <mergeCell ref="Q13:R14"/>
+    <mergeCell ref="S13:T14"/>
+    <mergeCell ref="U13:V14"/>
+    <mergeCell ref="W13:X14"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AE11:AI12"/>
+    <mergeCell ref="N11:P12"/>
+    <mergeCell ref="Q11:R12"/>
+    <mergeCell ref="S11:T12"/>
+    <mergeCell ref="U11:V12"/>
+    <mergeCell ref="W11:X12"/>
+    <mergeCell ref="Y11:Z12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="G11:J12"/>
+    <mergeCell ref="K11:M12"/>
+    <mergeCell ref="AC15:AD16"/>
+    <mergeCell ref="N15:P16"/>
+    <mergeCell ref="Q15:R16"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="U15:V16"/>
+    <mergeCell ref="W15:X16"/>
+    <mergeCell ref="Y15:Z16"/>
+    <mergeCell ref="AA11:AB12"/>
+    <mergeCell ref="AC11:AD12"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="AC13:AD14"/>
+    <mergeCell ref="AA15:AB16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G13:J14"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
     <mergeCell ref="AE7:AI8"/>
     <mergeCell ref="AE9:AI10"/>
     <mergeCell ref="N7:P8"/>
@@ -46339,239 +46606,174 @@
     <mergeCell ref="K7:M8"/>
     <mergeCell ref="S5:AB5"/>
     <mergeCell ref="AC5:AD6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="G11:J12"/>
-    <mergeCell ref="K11:M12"/>
-    <mergeCell ref="AC15:AD16"/>
-    <mergeCell ref="N15:P16"/>
-    <mergeCell ref="Q15:R16"/>
-    <mergeCell ref="S15:T16"/>
-    <mergeCell ref="U15:V16"/>
-    <mergeCell ref="W15:X16"/>
-    <mergeCell ref="Y15:Z16"/>
-    <mergeCell ref="AA11:AB12"/>
-    <mergeCell ref="AC11:AD12"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="AC13:AD14"/>
-    <mergeCell ref="AA15:AB16"/>
-    <mergeCell ref="AE13:AI14"/>
-    <mergeCell ref="AE15:AI16"/>
-    <mergeCell ref="N13:P14"/>
-    <mergeCell ref="Q13:R14"/>
-    <mergeCell ref="S13:T14"/>
-    <mergeCell ref="U13:V14"/>
-    <mergeCell ref="W13:X14"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AE11:AI12"/>
-    <mergeCell ref="N11:P12"/>
-    <mergeCell ref="Q11:R12"/>
-    <mergeCell ref="S11:T12"/>
-    <mergeCell ref="U11:V12"/>
-    <mergeCell ref="W11:X12"/>
-    <mergeCell ref="Y11:Z12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:D14"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="G13:J14"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:J16"/>
-    <mergeCell ref="K15:M16"/>
-    <mergeCell ref="AE17:AI18"/>
-    <mergeCell ref="N17:P18"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="S17:T18"/>
-    <mergeCell ref="U17:V18"/>
-    <mergeCell ref="W17:X18"/>
-    <mergeCell ref="Y17:Z18"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="AC21:AD22"/>
-    <mergeCell ref="N21:P22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="W21:X22"/>
-    <mergeCell ref="Y21:Z22"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:J18"/>
-    <mergeCell ref="K17:M18"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="AC19:AD20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:J20"/>
-    <mergeCell ref="K19:M20"/>
-    <mergeCell ref="AA17:AB18"/>
-    <mergeCell ref="AC17:AD18"/>
+    <mergeCell ref="AE5:AI6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="K5:M6"/>
+    <mergeCell ref="N5:P6"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="AA9:AB10"/>
+    <mergeCell ref="AC9:AD10"/>
+    <mergeCell ref="N9:P10"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="U9:V10"/>
+    <mergeCell ref="W9:X10"/>
+    <mergeCell ref="Y9:Z10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:J10"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="S47:T48"/>
+    <mergeCell ref="U47:V48"/>
+    <mergeCell ref="W47:X48"/>
+    <mergeCell ref="Y47:Z48"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="G39:J40"/>
+    <mergeCell ref="K39:M40"/>
+    <mergeCell ref="Y43:Z44"/>
+    <mergeCell ref="AA47:AB48"/>
     <mergeCell ref="AC47:AD48"/>
-    <mergeCell ref="AA49:AB50"/>
-    <mergeCell ref="AC49:AD50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E49:F50"/>
-    <mergeCell ref="G49:J50"/>
-    <mergeCell ref="AE19:AI20"/>
-    <mergeCell ref="AE21:AI22"/>
-    <mergeCell ref="N19:P20"/>
-    <mergeCell ref="Q19:R20"/>
-    <mergeCell ref="S19:T20"/>
-    <mergeCell ref="U19:V20"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="Y19:Z20"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="G45:J46"/>
-    <mergeCell ref="K45:M46"/>
-    <mergeCell ref="AE43:AI44"/>
-    <mergeCell ref="AE45:AI46"/>
-    <mergeCell ref="N43:P44"/>
-    <mergeCell ref="Q43:R44"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:D48"/>
     <mergeCell ref="E47:F48"/>
     <mergeCell ref="G47:J48"/>
     <mergeCell ref="K47:M48"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:J22"/>
-    <mergeCell ref="K21:M22"/>
-    <mergeCell ref="K31:M32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="G33:J34"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:D30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="G29:J30"/>
-    <mergeCell ref="K29:M30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="AE49:AI50"/>
-    <mergeCell ref="AE51:AI52"/>
+    <mergeCell ref="AA39:AB40"/>
+    <mergeCell ref="AC39:AD40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:D42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="G41:J42"/>
+    <mergeCell ref="K41:M42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:D44"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="G43:J44"/>
+    <mergeCell ref="K43:M44"/>
+    <mergeCell ref="N43:P44"/>
+    <mergeCell ref="Q43:R44"/>
+    <mergeCell ref="S43:T44"/>
+    <mergeCell ref="U43:V44"/>
+    <mergeCell ref="W43:X44"/>
+    <mergeCell ref="AE39:AI40"/>
+    <mergeCell ref="N39:P40"/>
+    <mergeCell ref="Q39:R40"/>
+    <mergeCell ref="S39:T40"/>
+    <mergeCell ref="U39:V40"/>
+    <mergeCell ref="W39:X40"/>
+    <mergeCell ref="Y39:Z40"/>
+    <mergeCell ref="AA49:AB50"/>
+    <mergeCell ref="AC49:AD50"/>
     <mergeCell ref="N49:P50"/>
     <mergeCell ref="Q49:R50"/>
     <mergeCell ref="S49:T50"/>
     <mergeCell ref="U49:V50"/>
     <mergeCell ref="W49:X50"/>
     <mergeCell ref="Y49:Z50"/>
-    <mergeCell ref="AE47:AI48"/>
-    <mergeCell ref="N47:P48"/>
-    <mergeCell ref="Q47:R48"/>
-    <mergeCell ref="S47:T48"/>
-    <mergeCell ref="U47:V48"/>
-    <mergeCell ref="W47:X48"/>
-    <mergeCell ref="Y47:Z48"/>
-    <mergeCell ref="AA51:AB52"/>
-    <mergeCell ref="AC51:AD52"/>
-    <mergeCell ref="N51:P52"/>
-    <mergeCell ref="Q51:R52"/>
-    <mergeCell ref="S51:T52"/>
-    <mergeCell ref="U51:V52"/>
-    <mergeCell ref="W51:X52"/>
-    <mergeCell ref="Y51:Z52"/>
-    <mergeCell ref="AA47:AB48"/>
-    <mergeCell ref="N53:P54"/>
-    <mergeCell ref="Q53:R54"/>
-    <mergeCell ref="S53:T54"/>
-    <mergeCell ref="U53:V54"/>
-    <mergeCell ref="K49:M50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:F52"/>
-    <mergeCell ref="G51:J52"/>
-    <mergeCell ref="K51:M52"/>
-    <mergeCell ref="W53:X54"/>
-    <mergeCell ref="Y53:Z54"/>
-    <mergeCell ref="AA53:AB54"/>
-    <mergeCell ref="AC53:AD54"/>
-    <mergeCell ref="AE53:AI54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:D56"/>
-    <mergeCell ref="E55:F56"/>
-    <mergeCell ref="G55:J56"/>
-    <mergeCell ref="K55:M56"/>
-    <mergeCell ref="N55:P56"/>
-    <mergeCell ref="Q55:R56"/>
-    <mergeCell ref="S55:T56"/>
-    <mergeCell ref="U55:V56"/>
-    <mergeCell ref="W55:X56"/>
-    <mergeCell ref="Y55:Z56"/>
-    <mergeCell ref="AA55:AB56"/>
-    <mergeCell ref="AC55:AD56"/>
-    <mergeCell ref="AE55:AI56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:D54"/>
-    <mergeCell ref="E53:F54"/>
-    <mergeCell ref="G53:J54"/>
-    <mergeCell ref="K53:M54"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:D58"/>
-    <mergeCell ref="E57:F58"/>
-    <mergeCell ref="G57:J58"/>
-    <mergeCell ref="K57:M58"/>
-    <mergeCell ref="N57:P58"/>
-    <mergeCell ref="Q57:R58"/>
-    <mergeCell ref="S57:T58"/>
-    <mergeCell ref="U57:V58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="E59:F60"/>
-    <mergeCell ref="G59:J60"/>
-    <mergeCell ref="K59:M60"/>
-    <mergeCell ref="N59:P60"/>
-    <mergeCell ref="Q59:R60"/>
-    <mergeCell ref="S59:T60"/>
-    <mergeCell ref="U59:V60"/>
-    <mergeCell ref="N61:P62"/>
-    <mergeCell ref="Q61:R62"/>
-    <mergeCell ref="S61:T62"/>
-    <mergeCell ref="U61:V62"/>
-    <mergeCell ref="W57:X58"/>
-    <mergeCell ref="Y57:Z58"/>
-    <mergeCell ref="AA57:AB58"/>
-    <mergeCell ref="AC57:AD58"/>
-    <mergeCell ref="AE57:AI58"/>
-    <mergeCell ref="W59:X60"/>
-    <mergeCell ref="Y59:Z60"/>
-    <mergeCell ref="AA59:AB60"/>
-    <mergeCell ref="AC59:AD60"/>
-    <mergeCell ref="AE59:AI60"/>
-    <mergeCell ref="W61:X62"/>
-    <mergeCell ref="Y61:Z62"/>
-    <mergeCell ref="AA61:AB62"/>
-    <mergeCell ref="AC61:AD62"/>
-    <mergeCell ref="AE61:AI62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:F64"/>
-    <mergeCell ref="G63:J64"/>
-    <mergeCell ref="K63:M64"/>
-    <mergeCell ref="N63:P64"/>
-    <mergeCell ref="Q63:R64"/>
-    <mergeCell ref="S63:T64"/>
-    <mergeCell ref="U63:V64"/>
-    <mergeCell ref="W63:X64"/>
-    <mergeCell ref="Y63:Z64"/>
-    <mergeCell ref="AA63:AB64"/>
-    <mergeCell ref="AC63:AD64"/>
-    <mergeCell ref="AE63:AI64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:F62"/>
-    <mergeCell ref="G61:J62"/>
-    <mergeCell ref="K61:M62"/>
+    <mergeCell ref="N41:P42"/>
+    <mergeCell ref="Q41:R42"/>
+    <mergeCell ref="S41:T42"/>
+    <mergeCell ref="U41:V42"/>
+    <mergeCell ref="W41:X42"/>
+    <mergeCell ref="Y41:Z42"/>
+    <mergeCell ref="AA41:AB42"/>
+    <mergeCell ref="AC41:AD42"/>
+    <mergeCell ref="AE41:AI42"/>
+    <mergeCell ref="AE37:AI38"/>
+    <mergeCell ref="N35:P36"/>
+    <mergeCell ref="Q35:R36"/>
+    <mergeCell ref="S35:T36"/>
+    <mergeCell ref="U35:V36"/>
+    <mergeCell ref="W35:X36"/>
+    <mergeCell ref="Y35:Z36"/>
+    <mergeCell ref="AE33:AI34"/>
+    <mergeCell ref="N33:P34"/>
+    <mergeCell ref="Q33:R34"/>
+    <mergeCell ref="S33:T34"/>
+    <mergeCell ref="U33:V34"/>
+    <mergeCell ref="W33:X34"/>
+    <mergeCell ref="Y33:Z34"/>
+    <mergeCell ref="AA37:AB38"/>
+    <mergeCell ref="AC37:AD38"/>
+    <mergeCell ref="N37:P38"/>
+    <mergeCell ref="Q37:R38"/>
+    <mergeCell ref="S37:T38"/>
+    <mergeCell ref="U37:V38"/>
+    <mergeCell ref="W37:X38"/>
+    <mergeCell ref="Y37:Z38"/>
+    <mergeCell ref="AA33:AB34"/>
+    <mergeCell ref="AC33:AD34"/>
+    <mergeCell ref="AA35:AB36"/>
+    <mergeCell ref="AC35:AD36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="G35:J36"/>
+    <mergeCell ref="AE29:AI30"/>
+    <mergeCell ref="AE31:AI32"/>
+    <mergeCell ref="N29:P30"/>
+    <mergeCell ref="Q29:R30"/>
+    <mergeCell ref="S29:T30"/>
+    <mergeCell ref="U29:V30"/>
+    <mergeCell ref="W29:X30"/>
+    <mergeCell ref="Y29:Z30"/>
+    <mergeCell ref="G31:J32"/>
+    <mergeCell ref="K31:M32"/>
+    <mergeCell ref="AE35:AI36"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="G27:J28"/>
+    <mergeCell ref="K27:M28"/>
+    <mergeCell ref="AA29:AB30"/>
+    <mergeCell ref="AC29:AD30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:J30"/>
+    <mergeCell ref="K29:M30"/>
+    <mergeCell ref="AA27:AB28"/>
+    <mergeCell ref="AC27:AD28"/>
+    <mergeCell ref="AE27:AI28"/>
+    <mergeCell ref="N27:P28"/>
+    <mergeCell ref="Q27:R28"/>
+    <mergeCell ref="S27:T28"/>
+    <mergeCell ref="U27:V28"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Z28"/>
+    <mergeCell ref="AA31:AB32"/>
+    <mergeCell ref="AC31:AD32"/>
+    <mergeCell ref="N31:P32"/>
+    <mergeCell ref="Q31:R32"/>
+    <mergeCell ref="S31:T32"/>
+    <mergeCell ref="U31:V32"/>
+    <mergeCell ref="W31:X32"/>
+    <mergeCell ref="Y31:Z32"/>
+    <mergeCell ref="AA43:AB44"/>
+    <mergeCell ref="AC43:AD44"/>
+    <mergeCell ref="AE43:AI44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="G45:J46"/>
+    <mergeCell ref="K45:M46"/>
+    <mergeCell ref="N45:P46"/>
+    <mergeCell ref="Q45:R46"/>
+    <mergeCell ref="S45:T46"/>
+    <mergeCell ref="U45:V46"/>
+    <mergeCell ref="W45:X46"/>
+    <mergeCell ref="Y45:Z46"/>
+    <mergeCell ref="AA45:AB46"/>
+    <mergeCell ref="AC45:AD46"/>
+    <mergeCell ref="AE45:AI46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
